--- a/submissions2/1.調査分析データ.xlsx
+++ b/submissions2/1.調査分析データ.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\f17016\Desktop\知的財産1022\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="375" yWindow="15" windowWidth="17760" windowHeight="10905"/>
+    <workbookView xWindow="375" yWindow="15" windowWidth="17760" windowHeight="10905" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="調査内容" sheetId="1" r:id="rId1"/>
@@ -2481,11 +2476,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3218,77 +3213,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3303,6 +3235,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3320,11 +3258,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3346,7 +3341,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
@@ -3679,7 +3674,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-19F5-4855-88BA-C021D74E8E29}"/>
             </c:ext>
@@ -3695,11 +3690,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="78167424"/>
-        <c:axId val="78452608"/>
+        <c:axId val="51522560"/>
+        <c:axId val="52838400"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="78167424"/>
+        <c:axId val="51522560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3723,14 +3718,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="yyyy&quot;年&quot;m&quot;月&quot;" sourceLinked="1"/>
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78452608"/>
+        <c:crossAx val="52838400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -3741,7 +3735,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="78452608"/>
+        <c:axId val="52838400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3764,14 +3758,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78167424"/>
+        <c:crossAx val="51522560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3789,7 +3782,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
@@ -4156,7 +4149,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4660-4AB0-95BC-D6560AE824D4}"/>
             </c:ext>
@@ -4483,7 +4476,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-4660-4AB0-95BC-D6560AE824D4}"/>
             </c:ext>
@@ -4810,7 +4803,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-4660-4AB0-95BC-D6560AE824D4}"/>
             </c:ext>
@@ -5137,7 +5130,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-4660-4AB0-95BC-D6560AE824D4}"/>
             </c:ext>
@@ -5464,7 +5457,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-4660-4AB0-95BC-D6560AE824D4}"/>
             </c:ext>
@@ -5791,7 +5784,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-4660-4AB0-95BC-D6560AE824D4}"/>
             </c:ext>
@@ -6118,7 +6111,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-4660-4AB0-95BC-D6560AE824D4}"/>
             </c:ext>
@@ -6445,7 +6438,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-4660-4AB0-95BC-D6560AE824D4}"/>
             </c:ext>
@@ -6772,7 +6765,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-4660-4AB0-95BC-D6560AE824D4}"/>
             </c:ext>
@@ -7099,7 +7092,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000009-4660-4AB0-95BC-D6560AE824D4}"/>
             </c:ext>
@@ -7426,7 +7419,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000A-4660-4AB0-95BC-D6560AE824D4}"/>
             </c:ext>
@@ -7753,7 +7746,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000B-4660-4AB0-95BC-D6560AE824D4}"/>
             </c:ext>
@@ -8080,7 +8073,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000C-4660-4AB0-95BC-D6560AE824D4}"/>
             </c:ext>
@@ -8407,7 +8400,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000D-4660-4AB0-95BC-D6560AE824D4}"/>
             </c:ext>
@@ -8734,7 +8727,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000E-4660-4AB0-95BC-D6560AE824D4}"/>
             </c:ext>
@@ -9061,7 +9054,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000F-4660-4AB0-95BC-D6560AE824D4}"/>
             </c:ext>
@@ -9388,7 +9381,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000010-4660-4AB0-95BC-D6560AE824D4}"/>
             </c:ext>
@@ -9405,12 +9398,12 @@
         <c:gapWidth val="5"/>
         <c:gapDepth val="200"/>
         <c:shape val="box"/>
-        <c:axId val="78795904"/>
-        <c:axId val="78797440"/>
-        <c:axId val="78774720"/>
+        <c:axId val="53007488"/>
+        <c:axId val="53009024"/>
+        <c:axId val="53000832"/>
       </c:bar3DChart>
       <c:dateAx>
-        <c:axId val="78795904"/>
+        <c:axId val="53007488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9431,7 +9424,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78797440"/>
+        <c:crossAx val="53009024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -9440,7 +9433,7 @@
         <c:majorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="78797440"/>
+        <c:axId val="53009024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9451,12 +9444,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78795904"/>
+        <c:crossAx val="53007488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="78774720"/>
+        <c:axId val="53000832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9465,7 +9458,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78797440"/>
+        <c:crossAx val="53009024"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="10"/>
         <c:tickMarkSkip val="1"/>
@@ -9498,7 +9491,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
@@ -9535,18 +9528,9 @@
             <c:strRef>
               <c:f>出願件数!$E$29:$H$29</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>三菱重工業</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>日立グループ </c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>新日鐵グループ</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>電力中央研究所</c:v>
+                  <c:v>三菱重工業 日立グループ  新日鐵グループ 電力中央研究所</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9564,7 +9548,7 @@
                 <a:noFill/>
               </a:ln>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000000-D1D5-404F-B903-230FCF34B1E4}"/>
               </c:ext>
@@ -9582,7 +9566,7 @@
                 <a:noFill/>
               </a:ln>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-D1D5-404F-B903-230FCF34B1E4}"/>
               </c:ext>
@@ -9600,7 +9584,7 @@
                 <a:noFill/>
               </a:ln>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000002-D1D5-404F-B903-230FCF34B1E4}"/>
               </c:ext>
@@ -9615,7 +9599,7 @@
                 <a:srgbClr val="00B0F0"/>
               </a:solidFill>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-D1D5-404F-B903-230FCF34B1E4}"/>
               </c:ext>
@@ -9662,7 +9646,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-D1D5-404F-B903-230FCF34B1E4}"/>
             </c:ext>
@@ -9677,11 +9661,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="78832768"/>
-        <c:axId val="78834304"/>
+        <c:axId val="52867072"/>
+        <c:axId val="52868608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="78832768"/>
+        <c:axId val="52867072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9691,7 +9675,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78834304"/>
+        <c:crossAx val="52868608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9699,7 +9683,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78834304"/>
+        <c:axId val="52868608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9746,7 +9730,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78832768"/>
+        <c:crossAx val="52867072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9764,7 +9748,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
@@ -9793,11 +9777,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="78815232"/>
-        <c:axId val="78816768"/>
+        <c:axId val="53059968"/>
+        <c:axId val="53061504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="78815232"/>
+        <c:axId val="53059968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9806,7 +9790,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78816768"/>
+        <c:crossAx val="53061504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9814,7 +9798,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78816768"/>
+        <c:axId val="53061504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9825,14 +9809,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78815232"/>
+        <c:crossAx val="53059968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -9848,7 +9831,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
@@ -9958,7 +9941,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-70C6-49DA-8895-2A7B86F5ECCD}"/>
             </c:ext>
@@ -10044,7 +10027,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-70C6-49DA-8895-2A7B86F5ECCD}"/>
             </c:ext>
@@ -10130,7 +10113,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-70C6-49DA-8895-2A7B86F5ECCD}"/>
             </c:ext>
@@ -10216,7 +10199,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-70C6-49DA-8895-2A7B86F5ECCD}"/>
             </c:ext>
@@ -10231,11 +10214,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="78928896"/>
-        <c:axId val="78934784"/>
+        <c:axId val="176338432"/>
+        <c:axId val="176339968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="78928896"/>
+        <c:axId val="176338432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10245,7 +10228,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78934784"/>
+        <c:crossAx val="176339968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10253,7 +10236,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78934784"/>
+        <c:axId val="176339968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10264,7 +10247,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78928896"/>
+        <c:crossAx val="176338432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10296,7 +10279,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
@@ -10420,7 +10403,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-60F1-45E6-96B1-5240866B802D}"/>
             </c:ext>
@@ -10533,7 +10516,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-60F1-45E6-96B1-5240866B802D}"/>
             </c:ext>
@@ -10637,7 +10620,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-60F1-45E6-96B1-5240866B802D}"/>
             </c:ext>
@@ -10744,7 +10727,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-60F1-45E6-96B1-5240866B802D}"/>
             </c:ext>
@@ -10760,11 +10743,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="78969088"/>
-        <c:axId val="80031744"/>
+        <c:axId val="192379520"/>
+        <c:axId val="192385408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="78969088"/>
+        <c:axId val="192379520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10774,7 +10757,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80031744"/>
+        <c:crossAx val="192385408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10782,7 +10765,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80031744"/>
+        <c:axId val="192385408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10793,7 +10776,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78969088"/>
+        <c:crossAx val="192379520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10825,7 +10808,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
@@ -10873,7 +10856,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
                 <c15:showLeaderLines val="0"/>
@@ -11916,7 +11899,7 @@
             </c:numRef>
           </c:bubbleSize>
           <c:bubble3D val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-00A0-4896-933C-CE1FBB12ACFF}"/>
             </c:ext>
@@ -11932,11 +11915,11 @@
         </c:dLbls>
         <c:bubbleScale val="50"/>
         <c:showNegBubbles val="0"/>
-        <c:axId val="80177024"/>
-        <c:axId val="80178560"/>
+        <c:axId val="192577920"/>
+        <c:axId val="192580608"/>
       </c:bubbleChart>
       <c:valAx>
-        <c:axId val="80177024"/>
+        <c:axId val="192577920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="28"/>
@@ -11950,14 +11933,14 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80178560"/>
+        <c:crossAx val="192580608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80178560"/>
+        <c:axId val="192580608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="18"/>
@@ -11970,7 +11953,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80177024"/>
+        <c:crossAx val="192577920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -13616,7 +13599,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -13658,7 +13641,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -13693,7 +13676,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -13904,14 +13887,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Z168"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="F13" sqref="F13:H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="1.25" customWidth="1"/>
     <col min="2" max="2" width="6.25" customWidth="1"/>
@@ -13940,8 +13923,8 @@
     <col min="27" max="27" width="26.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:21" ht="14.25" thickBot="1"/>
+    <row r="2" spans="2:21" ht="14.25" thickBot="1">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -13956,37 +13939,37 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="2:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="2:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:21" ht="14.25" thickBot="1"/>
+    <row r="4" spans="2:21" ht="14.25" thickBot="1">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="78" t="s">
+      <c r="C4" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="79"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="84" t="s">
+      <c r="D4" s="58"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="82"/>
-      <c r="H4" s="85"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="66"/>
       <c r="I4" s="17" t="s">
         <v>7</v>
       </c>
       <c r="J4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="81" t="s">
+      <c r="K4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="82"/>
-      <c r="M4" s="83"/>
-      <c r="N4" s="76" t="s">
+      <c r="L4" s="63"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="77"/>
-      <c r="P4" s="77"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
       <c r="Q4" s="30" t="s">
         <v>12</v>
       </c>
@@ -13995,22 +13978,22 @@
       </c>
       <c r="S4" s="30"/>
     </row>
-    <row r="5" spans="2:21" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:21" ht="14.25">
       <c r="B5" s="18">
         <v>1</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="74" t="s">
+      <c r="D5" s="72" t="s">
         <v>450</v>
       </c>
-      <c r="E5" s="75"/>
-      <c r="F5" s="71" t="s">
+      <c r="E5" s="73"/>
+      <c r="F5" s="69" t="s">
         <v>447</v>
       </c>
-      <c r="G5" s="72"/>
-      <c r="H5" s="73"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="71"/>
       <c r="I5" s="23"/>
       <c r="J5" s="20"/>
       <c r="K5" s="14" t="s">
@@ -14018,7 +14001,7 @@
       </c>
       <c r="L5" s="6"/>
       <c r="M5" s="7"/>
-      <c r="N5" s="87" t="s">
+      <c r="N5" s="52" t="s">
         <v>449</v>
       </c>
       <c r="O5" s="6"/>
@@ -14033,22 +14016,22 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:21" ht="13.5" customHeight="1">
       <c r="B6" s="19">
         <v>2</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="65" t="s">
+      <c r="D6" s="60" t="s">
         <v>452</v>
       </c>
-      <c r="E6" s="66"/>
-      <c r="F6" s="52" t="s">
+      <c r="E6" s="61"/>
+      <c r="F6" s="53" t="s">
         <v>472</v>
       </c>
-      <c r="G6" s="60"/>
-      <c r="H6" s="61"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="68"/>
       <c r="I6" s="24"/>
       <c r="J6" s="21"/>
       <c r="K6" s="8" t="s">
@@ -14071,22 +14054,22 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="2:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:21" ht="13.5" customHeight="1">
       <c r="B7" s="19">
         <v>3</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="65" t="s">
+      <c r="D7" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="66"/>
-      <c r="F7" s="52" t="s">
+      <c r="E7" s="61"/>
+      <c r="F7" s="53" t="s">
         <v>473</v>
       </c>
-      <c r="G7" s="60"/>
-      <c r="H7" s="61"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="68"/>
       <c r="I7" s="24"/>
       <c r="J7" s="24"/>
       <c r="K7" s="8" t="s">
@@ -14109,22 +14092,22 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="2:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:21" ht="13.5" customHeight="1">
       <c r="B8" s="19">
         <v>4</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="65" t="s">
+      <c r="D8" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="66"/>
-      <c r="F8" s="52" t="s">
+      <c r="E8" s="61"/>
+      <c r="F8" s="53" t="s">
         <v>474</v>
       </c>
-      <c r="G8" s="60"/>
-      <c r="H8" s="61"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="68"/>
       <c r="I8" s="24"/>
       <c r="J8" s="21"/>
       <c r="K8" s="8" t="s">
@@ -14149,22 +14132,22 @@
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
     </row>
-    <row r="9" spans="2:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:21" ht="13.5" customHeight="1">
       <c r="B9" s="19">
         <v>5</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="65" t="s">
+      <c r="D9" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="66"/>
-      <c r="F9" s="52" t="s">
+      <c r="E9" s="61"/>
+      <c r="F9" s="53" t="s">
         <v>475</v>
       </c>
-      <c r="G9" s="60"/>
-      <c r="H9" s="61"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="68"/>
       <c r="I9" s="24"/>
       <c r="J9" s="21"/>
       <c r="K9" s="8" t="s">
@@ -14187,22 +14170,22 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:21">
       <c r="B10" s="19">
         <v>6</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="65" t="s">
+      <c r="D10" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="66"/>
-      <c r="F10" s="52" t="s">
+      <c r="E10" s="61"/>
+      <c r="F10" s="53" t="s">
         <v>476</v>
       </c>
-      <c r="G10" s="60"/>
-      <c r="H10" s="61"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="68"/>
       <c r="I10" s="24"/>
       <c r="J10" s="21"/>
       <c r="K10" s="8" t="s">
@@ -14225,22 +14208,22 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:21">
       <c r="B11" s="19">
         <v>7</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="65" t="s">
+      <c r="D11" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="66"/>
-      <c r="F11" s="52" t="s">
+      <c r="E11" s="61"/>
+      <c r="F11" s="53" t="s">
         <v>477</v>
       </c>
-      <c r="G11" s="60"/>
-      <c r="H11" s="61"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="68"/>
       <c r="I11" s="24"/>
       <c r="J11" s="21"/>
       <c r="K11" s="8" t="s">
@@ -14265,22 +14248,22 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:21">
       <c r="B12" s="19">
         <v>8</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="65" t="s">
+      <c r="D12" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="66"/>
-      <c r="F12" s="52" t="s">
+      <c r="E12" s="61"/>
+      <c r="F12" s="53" t="s">
         <v>478</v>
       </c>
-      <c r="G12" s="60"/>
-      <c r="H12" s="61"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="68"/>
       <c r="I12" s="24"/>
       <c r="J12" s="21"/>
       <c r="K12" s="8" t="s">
@@ -14303,20 +14286,20 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:21">
       <c r="B13" s="19">
         <v>9</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="65" t="s">
+      <c r="D13" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="66"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="68"/>
       <c r="I13" s="24"/>
       <c r="J13" s="21"/>
       <c r="K13" s="8" t="s">
@@ -14339,20 +14322,20 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:21">
       <c r="B14" s="19">
         <v>10</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="65" t="s">
+      <c r="D14" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="66"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="68"/>
       <c r="I14" s="24"/>
       <c r="J14" s="21"/>
       <c r="K14" s="8" t="s">
@@ -14375,20 +14358,20 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:21">
       <c r="B15" s="19">
         <v>11</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="65" t="s">
+      <c r="D15" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="66"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="68"/>
       <c r="I15" s="24"/>
       <c r="J15" s="21"/>
       <c r="K15" s="8" t="s">
@@ -14411,20 +14394,20 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:21">
       <c r="B16" s="19">
         <v>12</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="65" t="s">
+      <c r="D16" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="66"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="68"/>
       <c r="I16" s="24"/>
       <c r="J16" s="21"/>
       <c r="K16" s="8" t="s">
@@ -14449,20 +14432,20 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:19">
       <c r="B17" s="19">
         <v>13</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="65" t="s">
+      <c r="D17" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="66"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="68"/>
       <c r="I17" s="24"/>
       <c r="J17" s="21"/>
       <c r="K17" s="8" t="s">
@@ -14485,20 +14468,20 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:19">
       <c r="B18" s="19">
         <v>14</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="65" t="s">
+      <c r="D18" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="E18" s="66"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="68"/>
       <c r="I18" s="24"/>
       <c r="J18" s="21"/>
       <c r="K18" s="8" t="s">
@@ -14521,20 +14504,20 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:19">
       <c r="B19" s="19">
         <v>15</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="65" t="s">
+      <c r="D19" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="66"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="68"/>
       <c r="I19" s="24"/>
       <c r="J19" s="21"/>
       <c r="K19" s="8" t="s">
@@ -14557,20 +14540,20 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:19">
       <c r="B20" s="19">
         <v>16</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="65" t="s">
+      <c r="D20" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="E20" s="66"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="68"/>
       <c r="I20" s="24"/>
       <c r="J20" s="21"/>
       <c r="K20" s="8" t="s">
@@ -14595,20 +14578,20 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:19">
       <c r="B21" s="19">
         <v>17</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="65" t="s">
+      <c r="D21" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="E21" s="66"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="68"/>
       <c r="I21" s="24"/>
       <c r="J21" s="21"/>
       <c r="K21" s="8" t="s">
@@ -14631,20 +14614,20 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:19">
       <c r="B22" s="19">
         <v>18</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="65" t="s">
+      <c r="D22" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="66"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="60"/>
-      <c r="H22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="68"/>
       <c r="I22" s="24"/>
       <c r="J22" s="21"/>
       <c r="K22" s="8" t="s">
@@ -14667,20 +14650,20 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:19">
       <c r="B23" s="19">
         <v>19</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="65" t="s">
+      <c r="D23" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="E23" s="66"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="68"/>
       <c r="I23" s="24"/>
       <c r="J23" s="21"/>
       <c r="K23" s="8" t="s">
@@ -14703,20 +14686,20 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:19">
       <c r="B24" s="19">
         <v>20</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="65" t="s">
+      <c r="D24" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="E24" s="66"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="68"/>
       <c r="I24" s="24"/>
       <c r="J24" s="21"/>
       <c r="K24" s="8" t="s">
@@ -14739,20 +14722,20 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:19">
       <c r="B25" s="19">
         <v>21</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="65" t="s">
+      <c r="D25" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="E25" s="66"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="68"/>
       <c r="I25" s="24"/>
       <c r="J25" s="21"/>
       <c r="K25" s="8" t="s">
@@ -14777,20 +14760,20 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:19">
       <c r="B26" s="19">
         <v>22</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="65" t="s">
+      <c r="D26" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="E26" s="66"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="68"/>
       <c r="I26" s="24"/>
       <c r="J26" s="21"/>
       <c r="K26" s="8" t="s">
@@ -14813,20 +14796,20 @@
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:19">
       <c r="B27" s="19">
         <v>23</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="65" t="s">
+      <c r="D27" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="E27" s="66"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="60"/>
-      <c r="H27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="68"/>
       <c r="I27" s="24"/>
       <c r="J27" s="21"/>
       <c r="K27" s="8" t="s">
@@ -14849,20 +14832,20 @@
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:19">
       <c r="B28" s="19">
         <v>24</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="65" t="s">
+      <c r="D28" s="60" t="s">
         <v>95</v>
       </c>
-      <c r="E28" s="66"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="68"/>
       <c r="I28" s="24"/>
       <c r="J28" s="21"/>
       <c r="K28" s="8" t="s">
@@ -14885,20 +14868,20 @@
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:19">
       <c r="B29" s="19">
         <v>25</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="65" t="s">
+      <c r="D29" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="E29" s="66"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="68"/>
       <c r="I29" s="24"/>
       <c r="J29" s="21"/>
       <c r="K29" s="8" t="s">
@@ -14923,20 +14906,20 @@
         <v>99</v>
       </c>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:19">
       <c r="B30" s="19">
         <v>26</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="65" t="s">
+      <c r="D30" s="60" t="s">
         <v>100</v>
       </c>
-      <c r="E30" s="66"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="60"/>
-      <c r="H30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="68"/>
       <c r="I30" s="24"/>
       <c r="J30" s="21"/>
       <c r="K30" s="8" t="s">
@@ -14959,20 +14942,20 @@
         <v>101</v>
       </c>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:19">
       <c r="B31" s="19">
         <v>27</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="65" t="s">
+      <c r="D31" s="60" t="s">
         <v>102</v>
       </c>
-      <c r="E31" s="66"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="60"/>
-      <c r="H31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="68"/>
       <c r="I31" s="24"/>
       <c r="J31" s="21"/>
       <c r="K31" s="8" t="s">
@@ -14995,20 +14978,20 @@
         <v>103</v>
       </c>
     </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:19">
       <c r="B32" s="19">
         <v>28</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="65" t="s">
+      <c r="D32" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="E32" s="66"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="60"/>
-      <c r="H32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="68"/>
       <c r="I32" s="24"/>
       <c r="J32" s="21"/>
       <c r="K32" s="8" t="s">
@@ -15031,20 +15014,20 @@
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:22">
       <c r="B33" s="19">
         <v>29</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D33" s="65" t="s">
+      <c r="D33" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="E33" s="66"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="60"/>
-      <c r="H33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="67"/>
+      <c r="H33" s="68"/>
       <c r="I33" s="24"/>
       <c r="J33" s="24"/>
       <c r="K33" s="8" t="s">
@@ -15069,20 +15052,20 @@
         <v>107</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:22">
       <c r="B34" s="19">
         <v>30</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D34" s="65" t="s">
+      <c r="D34" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="E34" s="66"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="60"/>
-      <c r="H34" s="61"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="67"/>
+      <c r="H34" s="68"/>
       <c r="I34" s="24"/>
       <c r="J34" s="21"/>
       <c r="K34" s="8" t="s">
@@ -15107,20 +15090,20 @@
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:22">
       <c r="B35" s="19">
         <v>31</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D35" s="65" t="s">
+      <c r="D35" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="E35" s="66"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="60"/>
-      <c r="H35" s="61"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="67"/>
+      <c r="H35" s="68"/>
       <c r="I35" s="24" t="s">
         <v>55</v>
       </c>
@@ -15147,22 +15130,22 @@
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:22">
       <c r="B36" s="19">
         <v>32</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="65" t="s">
+      <c r="D36" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="E36" s="66"/>
-      <c r="F36" s="52" t="s">
+      <c r="E36" s="61"/>
+      <c r="F36" s="53" t="s">
         <v>114</v>
       </c>
-      <c r="G36" s="60"/>
-      <c r="H36" s="61"/>
+      <c r="G36" s="67"/>
+      <c r="H36" s="68"/>
       <c r="I36" s="24" t="s">
         <v>55</v>
       </c>
@@ -15189,22 +15172,22 @@
         <v>115</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:22">
       <c r="B37" s="19">
         <v>33</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D37" s="65" t="s">
+      <c r="D37" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="E37" s="66"/>
-      <c r="F37" s="52" t="s">
+      <c r="E37" s="61"/>
+      <c r="F37" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="G37" s="60"/>
-      <c r="H37" s="61"/>
+      <c r="G37" s="67"/>
+      <c r="H37" s="68"/>
       <c r="I37" s="24" t="s">
         <v>55</v>
       </c>
@@ -15233,22 +15216,22 @@
         <v>118</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:22">
       <c r="B38" s="19">
         <v>34</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="65" t="s">
+      <c r="D38" s="60" t="s">
         <v>119</v>
       </c>
-      <c r="E38" s="66"/>
-      <c r="F38" s="52" t="s">
+      <c r="E38" s="61"/>
+      <c r="F38" s="53" t="s">
         <v>120</v>
       </c>
-      <c r="G38" s="60"/>
-      <c r="H38" s="61"/>
+      <c r="G38" s="67"/>
+      <c r="H38" s="68"/>
       <c r="I38" s="24" t="s">
         <v>27</v>
       </c>
@@ -15275,22 +15258,22 @@
         <v>121</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:22">
       <c r="B39" s="19">
         <v>35</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D39" s="65" t="s">
+      <c r="D39" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="E39" s="66"/>
-      <c r="F39" s="52" t="s">
+      <c r="E39" s="61"/>
+      <c r="F39" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="G39" s="60"/>
-      <c r="H39" s="61"/>
+      <c r="G39" s="67"/>
+      <c r="H39" s="68"/>
       <c r="I39" s="24" t="s">
         <v>35</v>
       </c>
@@ -15317,22 +15300,22 @@
         <v>124</v>
       </c>
     </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:22">
       <c r="B40" s="19">
         <v>36</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D40" s="65" t="s">
+      <c r="D40" s="60" t="s">
         <v>125</v>
       </c>
-      <c r="E40" s="66"/>
-      <c r="F40" s="52" t="s">
+      <c r="E40" s="61"/>
+      <c r="F40" s="53" t="s">
         <v>126</v>
       </c>
-      <c r="G40" s="60"/>
-      <c r="H40" s="61"/>
+      <c r="G40" s="67"/>
+      <c r="H40" s="68"/>
       <c r="I40" s="24" t="s">
         <v>35</v>
       </c>
@@ -15361,22 +15344,22 @@
         <v>128</v>
       </c>
     </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:22">
       <c r="B41" s="19">
         <v>37</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D41" s="65" t="s">
+      <c r="D41" s="60" t="s">
         <v>129</v>
       </c>
-      <c r="E41" s="66"/>
-      <c r="F41" s="52" t="s">
+      <c r="E41" s="61"/>
+      <c r="F41" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="G41" s="60"/>
-      <c r="H41" s="61"/>
+      <c r="G41" s="67"/>
+      <c r="H41" s="68"/>
       <c r="I41" s="24" t="s">
         <v>27</v>
       </c>
@@ -15403,22 +15386,22 @@
         <v>131</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:22">
       <c r="B42" s="19">
         <v>38</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D42" s="65" t="s">
+      <c r="D42" s="60" t="s">
         <v>132</v>
       </c>
-      <c r="E42" s="66"/>
-      <c r="F42" s="52" t="s">
+      <c r="E42" s="61"/>
+      <c r="F42" s="53" t="s">
         <v>133</v>
       </c>
-      <c r="G42" s="60"/>
-      <c r="H42" s="61"/>
+      <c r="G42" s="67"/>
+      <c r="H42" s="68"/>
       <c r="I42" s="24" t="s">
         <v>55</v>
       </c>
@@ -15446,22 +15429,22 @@
       </c>
       <c r="U42" s="32"/>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:22">
       <c r="B43" s="19">
         <v>39</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D43" s="65" t="s">
+      <c r="D43" s="60" t="s">
         <v>135</v>
       </c>
-      <c r="E43" s="66"/>
-      <c r="F43" s="52" t="s">
+      <c r="E43" s="61"/>
+      <c r="F43" s="53" t="s">
         <v>136</v>
       </c>
-      <c r="G43" s="60"/>
-      <c r="H43" s="61"/>
+      <c r="G43" s="67"/>
+      <c r="H43" s="68"/>
       <c r="I43" s="24" t="s">
         <v>35</v>
       </c>
@@ -15488,22 +15471,22 @@
         <v>139</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:22">
       <c r="B44" s="19">
         <v>40</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D44" s="65" t="s">
+      <c r="D44" s="60" t="s">
         <v>140</v>
       </c>
-      <c r="E44" s="66"/>
-      <c r="F44" s="52" t="s">
+      <c r="E44" s="61"/>
+      <c r="F44" s="53" t="s">
         <v>141</v>
       </c>
-      <c r="G44" s="60"/>
-      <c r="H44" s="61"/>
+      <c r="G44" s="67"/>
+      <c r="H44" s="68"/>
       <c r="I44" s="24" t="s">
         <v>35</v>
       </c>
@@ -15532,22 +15515,22 @@
       <c r="U44" s="32"/>
       <c r="V44" s="32"/>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:22">
       <c r="B45" s="19">
         <v>41</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D45" s="65" t="s">
+      <c r="D45" s="60" t="s">
         <v>143</v>
       </c>
-      <c r="E45" s="66"/>
-      <c r="F45" s="52" t="s">
+      <c r="E45" s="61"/>
+      <c r="F45" s="53" t="s">
         <v>144</v>
       </c>
-      <c r="G45" s="60"/>
-      <c r="H45" s="61"/>
+      <c r="G45" s="67"/>
+      <c r="H45" s="68"/>
       <c r="I45" s="24" t="s">
         <v>55</v>
       </c>
@@ -15578,22 +15561,22 @@
       <c r="U45" s="32"/>
       <c r="V45" s="32"/>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:22">
       <c r="B46" s="19">
         <v>42</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D46" s="65" t="s">
+      <c r="D46" s="60" t="s">
         <v>146</v>
       </c>
-      <c r="E46" s="66"/>
-      <c r="F46" s="52" t="s">
+      <c r="E46" s="61"/>
+      <c r="F46" s="53" t="s">
         <v>147</v>
       </c>
-      <c r="G46" s="60"/>
-      <c r="H46" s="61"/>
+      <c r="G46" s="67"/>
+      <c r="H46" s="68"/>
       <c r="I46" s="24" t="s">
         <v>55</v>
       </c>
@@ -15621,22 +15604,22 @@
       </c>
       <c r="U46" s="33"/>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:22">
       <c r="B47" s="19">
         <v>43</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D47" s="65" t="s">
+      <c r="D47" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="E47" s="66"/>
-      <c r="F47" s="52" t="s">
+      <c r="E47" s="61"/>
+      <c r="F47" s="53" t="s">
         <v>150</v>
       </c>
-      <c r="G47" s="60"/>
-      <c r="H47" s="61"/>
+      <c r="G47" s="67"/>
+      <c r="H47" s="68"/>
       <c r="I47" s="24" t="s">
         <v>56</v>
       </c>
@@ -15663,22 +15646,22 @@
         <v>152</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:22">
       <c r="B48" s="19">
         <v>44</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D48" s="65" t="s">
+      <c r="D48" s="60" t="s">
         <v>153</v>
       </c>
-      <c r="E48" s="66"/>
-      <c r="F48" s="52" t="s">
+      <c r="E48" s="61"/>
+      <c r="F48" s="53" t="s">
         <v>154</v>
       </c>
-      <c r="G48" s="60"/>
-      <c r="H48" s="61"/>
+      <c r="G48" s="67"/>
+      <c r="H48" s="68"/>
       <c r="I48" s="24" t="s">
         <v>55</v>
       </c>
@@ -15705,22 +15688,22 @@
         <v>157</v>
       </c>
     </row>
-    <row r="49" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:24">
       <c r="B49" s="19">
         <v>45</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D49" s="65" t="s">
+      <c r="D49" s="60" t="s">
         <v>158</v>
       </c>
-      <c r="E49" s="66"/>
-      <c r="F49" s="52" t="s">
+      <c r="E49" s="61"/>
+      <c r="F49" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="G49" s="60"/>
-      <c r="H49" s="61"/>
+      <c r="G49" s="67"/>
+      <c r="H49" s="68"/>
       <c r="I49" s="24" t="s">
         <v>27</v>
       </c>
@@ -15748,22 +15731,22 @@
       </c>
       <c r="U49" s="33"/>
     </row>
-    <row r="50" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:24">
       <c r="B50" s="19">
         <v>46</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D50" s="65" t="s">
+      <c r="D50" s="60" t="s">
         <v>161</v>
       </c>
-      <c r="E50" s="66"/>
-      <c r="F50" s="52" t="s">
+      <c r="E50" s="61"/>
+      <c r="F50" s="53" t="s">
         <v>164</v>
       </c>
-      <c r="G50" s="60"/>
-      <c r="H50" s="61"/>
+      <c r="G50" s="67"/>
+      <c r="H50" s="68"/>
       <c r="I50" s="24" t="s">
         <v>56</v>
       </c>
@@ -15793,22 +15776,22 @@
       <c r="V50" s="33"/>
       <c r="W50" s="33"/>
     </row>
-    <row r="51" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:24">
       <c r="B51" s="19">
         <v>47</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D51" s="65" t="s">
+      <c r="D51" s="60" t="s">
         <v>165</v>
       </c>
-      <c r="E51" s="66"/>
-      <c r="F51" s="52" t="s">
+      <c r="E51" s="61"/>
+      <c r="F51" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="G51" s="60"/>
-      <c r="H51" s="61"/>
+      <c r="G51" s="67"/>
+      <c r="H51" s="68"/>
       <c r="I51" s="24" t="s">
         <v>55</v>
       </c>
@@ -15835,22 +15818,22 @@
         <v>167</v>
       </c>
     </row>
-    <row r="52" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:24">
       <c r="B52" s="19">
         <v>48</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D52" s="65" t="s">
+      <c r="D52" s="60" t="s">
         <v>168</v>
       </c>
-      <c r="E52" s="66"/>
-      <c r="F52" s="52" t="s">
+      <c r="E52" s="61"/>
+      <c r="F52" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="G52" s="60"/>
-      <c r="H52" s="61"/>
+      <c r="G52" s="67"/>
+      <c r="H52" s="68"/>
       <c r="I52" s="24" t="s">
         <v>35</v>
       </c>
@@ -15877,22 +15860,22 @@
         <v>171</v>
       </c>
     </row>
-    <row r="53" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:24">
       <c r="B53" s="19">
         <v>49</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D53" s="65" t="s">
+      <c r="D53" s="60" t="s">
         <v>172</v>
       </c>
-      <c r="E53" s="66"/>
-      <c r="F53" s="59" t="s">
+      <c r="E53" s="61"/>
+      <c r="F53" s="74" t="s">
         <v>173</v>
       </c>
-      <c r="G53" s="60"/>
-      <c r="H53" s="61"/>
+      <c r="G53" s="67"/>
+      <c r="H53" s="68"/>
       <c r="I53" s="24" t="s">
         <v>55</v>
       </c>
@@ -15925,22 +15908,22 @@
       <c r="W53" s="32"/>
       <c r="X53" s="32"/>
     </row>
-    <row r="54" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:24">
       <c r="B54" s="19">
         <v>50</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D54" s="65" t="s">
+      <c r="D54" s="60" t="s">
         <v>177</v>
       </c>
-      <c r="E54" s="66"/>
-      <c r="F54" s="52" t="s">
+      <c r="E54" s="61"/>
+      <c r="F54" s="53" t="s">
         <v>178</v>
       </c>
-      <c r="G54" s="60"/>
-      <c r="H54" s="61"/>
+      <c r="G54" s="67"/>
+      <c r="H54" s="68"/>
       <c r="I54" s="24" t="s">
         <v>27</v>
       </c>
@@ -15970,22 +15953,22 @@
       <c r="V54" s="33"/>
       <c r="W54" s="33"/>
     </row>
-    <row r="55" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:24">
       <c r="B55" s="19">
         <v>51</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D55" s="65" t="s">
+      <c r="D55" s="60" t="s">
         <v>181</v>
       </c>
-      <c r="E55" s="66"/>
-      <c r="F55" s="52" t="s">
+      <c r="E55" s="61"/>
+      <c r="F55" s="53" t="s">
         <v>182</v>
       </c>
-      <c r="G55" s="60"/>
-      <c r="H55" s="61"/>
+      <c r="G55" s="67"/>
+      <c r="H55" s="68"/>
       <c r="I55" s="24" t="s">
         <v>27</v>
       </c>
@@ -16012,22 +15995,22 @@
         <v>184</v>
       </c>
     </row>
-    <row r="56" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:24">
       <c r="B56" s="19">
         <v>52</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D56" s="65" t="s">
+      <c r="D56" s="60" t="s">
         <v>185</v>
       </c>
-      <c r="E56" s="66"/>
-      <c r="F56" s="52" t="s">
+      <c r="E56" s="61"/>
+      <c r="F56" s="53" t="s">
         <v>186</v>
       </c>
-      <c r="G56" s="60"/>
-      <c r="H56" s="61"/>
+      <c r="G56" s="67"/>
+      <c r="H56" s="68"/>
       <c r="I56" s="24" t="s">
         <v>55</v>
       </c>
@@ -16054,22 +16037,22 @@
         <v>188</v>
       </c>
     </row>
-    <row r="57" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:24">
       <c r="B57" s="19">
         <v>53</v>
       </c>
       <c r="C57" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D57" s="65" t="s">
+      <c r="D57" s="60" t="s">
         <v>189</v>
       </c>
-      <c r="E57" s="66"/>
-      <c r="F57" s="59" t="s">
+      <c r="E57" s="61"/>
+      <c r="F57" s="74" t="s">
         <v>190</v>
       </c>
-      <c r="G57" s="60"/>
-      <c r="H57" s="61"/>
+      <c r="G57" s="67"/>
+      <c r="H57" s="68"/>
       <c r="I57" s="24" t="s">
         <v>55</v>
       </c>
@@ -16099,22 +16082,22 @@
       <c r="V57" s="32"/>
       <c r="W57" s="32"/>
     </row>
-    <row r="58" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:24">
       <c r="B58" s="19">
         <v>54</v>
       </c>
       <c r="C58" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D58" s="65" t="s">
+      <c r="D58" s="60" t="s">
         <v>192</v>
       </c>
-      <c r="E58" s="66"/>
-      <c r="F58" s="52" t="s">
+      <c r="E58" s="61"/>
+      <c r="F58" s="53" t="s">
         <v>193</v>
       </c>
-      <c r="G58" s="60"/>
-      <c r="H58" s="61"/>
+      <c r="G58" s="67"/>
+      <c r="H58" s="68"/>
       <c r="I58" s="24" t="s">
         <v>55</v>
       </c>
@@ -16141,22 +16124,22 @@
         <v>196</v>
       </c>
     </row>
-    <row r="59" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:24">
       <c r="B59" s="19">
         <v>55</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D59" s="65" t="s">
+      <c r="D59" s="60" t="s">
         <v>197</v>
       </c>
-      <c r="E59" s="66"/>
-      <c r="F59" s="52" t="s">
+      <c r="E59" s="61"/>
+      <c r="F59" s="53" t="s">
         <v>198</v>
       </c>
-      <c r="G59" s="60"/>
-      <c r="H59" s="61"/>
+      <c r="G59" s="67"/>
+      <c r="H59" s="68"/>
       <c r="I59" s="24" t="s">
         <v>56</v>
       </c>
@@ -16186,22 +16169,22 @@
       </c>
       <c r="U59" s="32"/>
     </row>
-    <row r="60" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:24">
       <c r="B60" s="19">
         <v>56</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D60" s="65" t="s">
+      <c r="D60" s="60" t="s">
         <v>200</v>
       </c>
-      <c r="E60" s="66"/>
-      <c r="F60" s="52" t="s">
+      <c r="E60" s="61"/>
+      <c r="F60" s="53" t="s">
         <v>201</v>
       </c>
-      <c r="G60" s="60"/>
-      <c r="H60" s="61"/>
+      <c r="G60" s="67"/>
+      <c r="H60" s="68"/>
       <c r="I60" s="24" t="s">
         <v>35</v>
       </c>
@@ -16228,22 +16211,22 @@
         <v>202</v>
       </c>
     </row>
-    <row r="61" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:24">
       <c r="B61" s="19">
         <v>57</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D61" s="65" t="s">
+      <c r="D61" s="60" t="s">
         <v>203</v>
       </c>
-      <c r="E61" s="66"/>
-      <c r="F61" s="52" t="s">
+      <c r="E61" s="61"/>
+      <c r="F61" s="53" t="s">
         <v>204</v>
       </c>
-      <c r="G61" s="60"/>
-      <c r="H61" s="61"/>
+      <c r="G61" s="67"/>
+      <c r="H61" s="68"/>
       <c r="I61" s="24" t="s">
         <v>56</v>
       </c>
@@ -16273,22 +16256,22 @@
       </c>
       <c r="U61" s="32"/>
     </row>
-    <row r="62" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:24" ht="13.5" customHeight="1">
       <c r="B62" s="19">
         <v>58</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D62" s="65" t="s">
+      <c r="D62" s="60" t="s">
         <v>206</v>
       </c>
-      <c r="E62" s="66"/>
-      <c r="F62" s="59" t="s">
+      <c r="E62" s="61"/>
+      <c r="F62" s="74" t="s">
         <v>207</v>
       </c>
-      <c r="G62" s="69"/>
-      <c r="H62" s="70"/>
+      <c r="G62" s="75"/>
+      <c r="H62" s="76"/>
       <c r="I62" s="24" t="s">
         <v>55</v>
       </c>
@@ -16315,22 +16298,22 @@
         <v>210</v>
       </c>
     </row>
-    <row r="63" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:24">
       <c r="B63" s="19">
         <v>59</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D63" s="65" t="s">
+      <c r="D63" s="60" t="s">
         <v>211</v>
       </c>
-      <c r="E63" s="66"/>
-      <c r="F63" s="52" t="s">
+      <c r="E63" s="61"/>
+      <c r="F63" s="53" t="s">
         <v>212</v>
       </c>
-      <c r="G63" s="60"/>
-      <c r="H63" s="61"/>
+      <c r="G63" s="67"/>
+      <c r="H63" s="68"/>
       <c r="I63" s="24" t="s">
         <v>55</v>
       </c>
@@ -16357,22 +16340,22 @@
         <v>218</v>
       </c>
     </row>
-    <row r="64" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:24">
       <c r="B64" s="19">
         <v>60</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D64" s="65" t="s">
+      <c r="D64" s="60" t="s">
         <v>220</v>
       </c>
-      <c r="E64" s="66"/>
-      <c r="F64" s="52" t="s">
+      <c r="E64" s="61"/>
+      <c r="F64" s="53" t="s">
         <v>219</v>
       </c>
-      <c r="G64" s="60"/>
-      <c r="H64" s="61"/>
+      <c r="G64" s="67"/>
+      <c r="H64" s="68"/>
       <c r="I64" s="24" t="s">
         <v>55</v>
       </c>
@@ -16399,22 +16382,22 @@
         <v>221</v>
       </c>
     </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:24">
       <c r="B65" s="19">
         <v>61</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D65" s="65" t="s">
+      <c r="D65" s="60" t="s">
         <v>222</v>
       </c>
-      <c r="E65" s="66"/>
-      <c r="F65" s="52" t="s">
+      <c r="E65" s="61"/>
+      <c r="F65" s="53" t="s">
         <v>223</v>
       </c>
-      <c r="G65" s="60"/>
-      <c r="H65" s="61"/>
+      <c r="G65" s="67"/>
+      <c r="H65" s="68"/>
       <c r="I65" s="24" t="s">
         <v>35</v>
       </c>
@@ -16441,22 +16424,22 @@
         <v>225</v>
       </c>
     </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:24">
       <c r="B66" s="19">
         <v>62</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D66" s="65" t="s">
+      <c r="D66" s="60" t="s">
         <v>226</v>
       </c>
-      <c r="E66" s="66"/>
-      <c r="F66" s="52" t="s">
+      <c r="E66" s="61"/>
+      <c r="F66" s="53" t="s">
         <v>227</v>
       </c>
-      <c r="G66" s="60"/>
-      <c r="H66" s="61"/>
+      <c r="G66" s="67"/>
+      <c r="H66" s="68"/>
       <c r="I66" s="24" t="s">
         <v>55</v>
       </c>
@@ -16485,22 +16468,22 @@
         <v>231</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:24">
       <c r="B67" s="19">
         <v>63</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D67" s="65" t="s">
+      <c r="D67" s="60" t="s">
         <v>232</v>
       </c>
-      <c r="E67" s="66"/>
-      <c r="F67" s="52" t="s">
+      <c r="E67" s="61"/>
+      <c r="F67" s="53" t="s">
         <v>233</v>
       </c>
-      <c r="G67" s="60"/>
-      <c r="H67" s="61"/>
+      <c r="G67" s="67"/>
+      <c r="H67" s="68"/>
       <c r="I67" s="24" t="s">
         <v>55</v>
       </c>
@@ -16527,22 +16510,22 @@
         <v>235</v>
       </c>
     </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:24">
       <c r="B68" s="19">
         <v>64</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D68" s="65" t="s">
+      <c r="D68" s="60" t="s">
         <v>236</v>
       </c>
-      <c r="E68" s="66"/>
-      <c r="F68" s="52" t="s">
+      <c r="E68" s="61"/>
+      <c r="F68" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="G68" s="60"/>
-      <c r="H68" s="61"/>
+      <c r="G68" s="67"/>
+      <c r="H68" s="68"/>
       <c r="I68" s="24" t="s">
         <v>55</v>
       </c>
@@ -16569,22 +16552,22 @@
         <v>239</v>
       </c>
     </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:24">
       <c r="B69" s="19">
         <v>65</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D69" s="65" t="s">
+      <c r="D69" s="60" t="s">
         <v>240</v>
       </c>
-      <c r="E69" s="66"/>
-      <c r="F69" s="52" t="s">
+      <c r="E69" s="61"/>
+      <c r="F69" s="53" t="s">
         <v>241</v>
       </c>
-      <c r="G69" s="60"/>
-      <c r="H69" s="61"/>
+      <c r="G69" s="67"/>
+      <c r="H69" s="68"/>
       <c r="I69" s="24" t="s">
         <v>55</v>
       </c>
@@ -16614,22 +16597,22 @@
       </c>
       <c r="U69" s="32"/>
     </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:24">
       <c r="B70" s="19">
         <v>66</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D70" s="65" t="s">
+      <c r="D70" s="60" t="s">
         <v>247</v>
       </c>
-      <c r="E70" s="66"/>
-      <c r="F70" s="52" t="s">
+      <c r="E70" s="61"/>
+      <c r="F70" s="53" t="s">
         <v>244</v>
       </c>
-      <c r="G70" s="60"/>
-      <c r="H70" s="61"/>
+      <c r="G70" s="67"/>
+      <c r="H70" s="68"/>
       <c r="I70" s="24" t="s">
         <v>56</v>
       </c>
@@ -16658,22 +16641,22 @@
         <v>246</v>
       </c>
     </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:24">
       <c r="B71" s="19">
         <v>67</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D71" s="65" t="s">
+      <c r="D71" s="60" t="s">
         <v>247</v>
       </c>
-      <c r="E71" s="66"/>
-      <c r="F71" s="52" t="s">
+      <c r="E71" s="61"/>
+      <c r="F71" s="53" t="s">
         <v>248</v>
       </c>
-      <c r="G71" s="60"/>
-      <c r="H71" s="61"/>
+      <c r="G71" s="67"/>
+      <c r="H71" s="68"/>
       <c r="I71" s="24" t="s">
         <v>55</v>
       </c>
@@ -16702,22 +16685,22 @@
       <c r="T71" s="34"/>
       <c r="U71" s="34"/>
     </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:24">
       <c r="B72" s="19">
         <v>68</v>
       </c>
       <c r="C72" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D72" s="65" t="s">
+      <c r="D72" s="60" t="s">
         <v>250</v>
       </c>
-      <c r="E72" s="66"/>
-      <c r="F72" s="52" t="s">
+      <c r="E72" s="61"/>
+      <c r="F72" s="53" t="s">
         <v>251</v>
       </c>
-      <c r="G72" s="60"/>
-      <c r="H72" s="61"/>
+      <c r="G72" s="67"/>
+      <c r="H72" s="68"/>
       <c r="I72" s="24" t="s">
         <v>252</v>
       </c>
@@ -16748,22 +16731,22 @@
       <c r="U72" s="32"/>
       <c r="V72" s="32"/>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:24">
       <c r="B73" s="19">
         <v>69</v>
       </c>
       <c r="C73" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D73" s="65" t="s">
+      <c r="D73" s="60" t="s">
         <v>254</v>
       </c>
-      <c r="E73" s="66"/>
-      <c r="F73" s="52" t="s">
+      <c r="E73" s="61"/>
+      <c r="F73" s="53" t="s">
         <v>255</v>
       </c>
-      <c r="G73" s="60"/>
-      <c r="H73" s="61"/>
+      <c r="G73" s="67"/>
+      <c r="H73" s="68"/>
       <c r="I73" s="24" t="s">
         <v>35</v>
       </c>
@@ -16791,22 +16774,22 @@
       </c>
       <c r="U73" s="33"/>
     </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:24">
       <c r="B74" s="19">
         <v>70</v>
       </c>
       <c r="C74" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D74" s="65" t="s">
+      <c r="D74" s="60" t="s">
         <v>257</v>
       </c>
-      <c r="E74" s="66"/>
-      <c r="F74" s="52" t="s">
+      <c r="E74" s="61"/>
+      <c r="F74" s="53" t="s">
         <v>244</v>
       </c>
-      <c r="G74" s="60"/>
-      <c r="H74" s="61"/>
+      <c r="G74" s="67"/>
+      <c r="H74" s="68"/>
       <c r="I74" s="24" t="s">
         <v>56</v>
       </c>
@@ -16837,22 +16820,22 @@
       <c r="W74" s="33"/>
       <c r="X74" s="33"/>
     </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:24">
       <c r="B75" s="19">
         <v>71</v>
       </c>
       <c r="C75" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D75" s="65" t="s">
+      <c r="D75" s="60" t="s">
         <v>261</v>
       </c>
-      <c r="E75" s="66"/>
-      <c r="F75" s="52" t="s">
+      <c r="E75" s="61"/>
+      <c r="F75" s="53" t="s">
         <v>244</v>
       </c>
-      <c r="G75" s="60"/>
-      <c r="H75" s="61"/>
+      <c r="G75" s="67"/>
+      <c r="H75" s="68"/>
       <c r="I75" s="24" t="s">
         <v>56</v>
       </c>
@@ -16881,22 +16864,22 @@
       <c r="U75" s="33"/>
       <c r="V75" s="33"/>
     </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:24">
       <c r="B76" s="19">
         <v>72</v>
       </c>
       <c r="C76" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D76" s="65" t="s">
+      <c r="D76" s="60" t="s">
         <v>264</v>
       </c>
-      <c r="E76" s="66"/>
-      <c r="F76" s="52" t="s">
+      <c r="E76" s="61"/>
+      <c r="F76" s="53" t="s">
         <v>265</v>
       </c>
-      <c r="G76" s="60"/>
-      <c r="H76" s="61"/>
+      <c r="G76" s="67"/>
+      <c r="H76" s="68"/>
       <c r="I76" s="24" t="s">
         <v>56</v>
       </c>
@@ -16927,22 +16910,22 @@
       <c r="U76" s="33"/>
       <c r="V76" s="33"/>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:24">
       <c r="B77" s="19">
         <v>73</v>
       </c>
       <c r="C77" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D77" s="65" t="s">
+      <c r="D77" s="60" t="s">
         <v>267</v>
       </c>
-      <c r="E77" s="66"/>
-      <c r="F77" s="52" t="s">
+      <c r="E77" s="61"/>
+      <c r="F77" s="53" t="s">
         <v>268</v>
       </c>
-      <c r="G77" s="60"/>
-      <c r="H77" s="61"/>
+      <c r="G77" s="67"/>
+      <c r="H77" s="68"/>
       <c r="I77" s="24" t="s">
         <v>56</v>
       </c>
@@ -16972,22 +16955,22 @@
       </c>
       <c r="U77" s="33"/>
     </row>
-    <row r="78" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:24">
       <c r="B78" s="19">
         <v>74</v>
       </c>
       <c r="C78" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D78" s="65" t="s">
+      <c r="D78" s="60" t="s">
         <v>270</v>
       </c>
-      <c r="E78" s="66"/>
-      <c r="F78" s="52" t="s">
+      <c r="E78" s="61"/>
+      <c r="F78" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="G78" s="60"/>
-      <c r="H78" s="61"/>
+      <c r="G78" s="67"/>
+      <c r="H78" s="68"/>
       <c r="I78" s="24" t="s">
         <v>35</v>
       </c>
@@ -17014,22 +16997,22 @@
         <v>271</v>
       </c>
     </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:24">
       <c r="B79" s="19">
         <v>75</v>
       </c>
       <c r="C79" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D79" s="65" t="s">
+      <c r="D79" s="60" t="s">
         <v>272</v>
       </c>
-      <c r="E79" s="66"/>
-      <c r="F79" s="52" t="s">
+      <c r="E79" s="61"/>
+      <c r="F79" s="53" t="s">
         <v>273</v>
       </c>
-      <c r="G79" s="60"/>
-      <c r="H79" s="61"/>
+      <c r="G79" s="67"/>
+      <c r="H79" s="68"/>
       <c r="I79" s="24" t="s">
         <v>55</v>
       </c>
@@ -17056,22 +17039,22 @@
         <v>274</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:24">
       <c r="B80" s="19">
         <v>76</v>
       </c>
       <c r="C80" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D80" s="65" t="s">
+      <c r="D80" s="60" t="s">
         <v>275</v>
       </c>
-      <c r="E80" s="66"/>
-      <c r="F80" s="52" t="s">
+      <c r="E80" s="61"/>
+      <c r="F80" s="53" t="s">
         <v>276</v>
       </c>
-      <c r="G80" s="60"/>
-      <c r="H80" s="61"/>
+      <c r="G80" s="67"/>
+      <c r="H80" s="68"/>
       <c r="I80" s="24" t="s">
         <v>55</v>
       </c>
@@ -17098,22 +17081,22 @@
         <v>278</v>
       </c>
     </row>
-    <row r="81" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:25">
       <c r="B81" s="19">
         <v>77</v>
       </c>
       <c r="C81" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D81" s="65" t="s">
+      <c r="D81" s="60" t="s">
         <v>279</v>
       </c>
-      <c r="E81" s="66"/>
-      <c r="F81" s="52" t="s">
+      <c r="E81" s="61"/>
+      <c r="F81" s="53" t="s">
         <v>280</v>
       </c>
-      <c r="G81" s="60"/>
-      <c r="H81" s="61"/>
+      <c r="G81" s="67"/>
+      <c r="H81" s="68"/>
       <c r="I81" s="24" t="s">
         <v>55</v>
       </c>
@@ -17141,22 +17124,22 @@
       </c>
       <c r="U81" s="32"/>
     </row>
-    <row r="82" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:25">
       <c r="B82" s="19">
         <v>78</v>
       </c>
       <c r="C82" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D82" s="65" t="s">
+      <c r="D82" s="60" t="s">
         <v>283</v>
       </c>
-      <c r="E82" s="66"/>
-      <c r="F82" s="52" t="s">
+      <c r="E82" s="61"/>
+      <c r="F82" s="53" t="s">
         <v>284</v>
       </c>
-      <c r="G82" s="60"/>
-      <c r="H82" s="61"/>
+      <c r="G82" s="67"/>
+      <c r="H82" s="68"/>
       <c r="I82" s="24" t="s">
         <v>55</v>
       </c>
@@ -17184,22 +17167,22 @@
       </c>
       <c r="U82" s="32"/>
     </row>
-    <row r="83" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:25">
       <c r="B83" s="19">
         <v>79</v>
       </c>
       <c r="C83" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D83" s="65" t="s">
+      <c r="D83" s="60" t="s">
         <v>287</v>
       </c>
-      <c r="E83" s="66"/>
-      <c r="F83" s="52" t="s">
+      <c r="E83" s="61"/>
+      <c r="F83" s="53" t="s">
         <v>288</v>
       </c>
-      <c r="G83" s="60"/>
-      <c r="H83" s="61"/>
+      <c r="G83" s="67"/>
+      <c r="H83" s="68"/>
       <c r="I83" s="24" t="s">
         <v>27</v>
       </c>
@@ -17228,22 +17211,22 @@
       <c r="U83" s="32"/>
       <c r="V83" s="32"/>
     </row>
-    <row r="84" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:25">
       <c r="B84" s="19">
         <v>80</v>
       </c>
       <c r="C84" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D84" s="65" t="s">
+      <c r="D84" s="60" t="s">
         <v>290</v>
       </c>
-      <c r="E84" s="66"/>
-      <c r="F84" s="52" t="s">
+      <c r="E84" s="61"/>
+      <c r="F84" s="53" t="s">
         <v>291</v>
       </c>
-      <c r="G84" s="60"/>
-      <c r="H84" s="61"/>
+      <c r="G84" s="67"/>
+      <c r="H84" s="68"/>
       <c r="I84" s="24" t="s">
         <v>55</v>
       </c>
@@ -17270,22 +17253,22 @@
         <v>293</v>
       </c>
     </row>
-    <row r="85" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:25">
       <c r="B85" s="19">
         <v>81</v>
       </c>
       <c r="C85" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D85" s="65" t="s">
+      <c r="D85" s="60" t="s">
         <v>295</v>
       </c>
-      <c r="E85" s="66"/>
-      <c r="F85" s="52" t="s">
+      <c r="E85" s="61"/>
+      <c r="F85" s="53" t="s">
         <v>294</v>
       </c>
-      <c r="G85" s="60"/>
-      <c r="H85" s="61"/>
+      <c r="G85" s="67"/>
+      <c r="H85" s="68"/>
       <c r="I85" s="24" t="s">
         <v>55</v>
       </c>
@@ -17312,22 +17295,22 @@
         <v>300</v>
       </c>
     </row>
-    <row r="86" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:25">
       <c r="B86" s="19">
         <v>82</v>
       </c>
       <c r="C86" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D86" s="65" t="s">
+      <c r="D86" s="60" t="s">
         <v>297</v>
       </c>
-      <c r="E86" s="66"/>
-      <c r="F86" s="52" t="s">
+      <c r="E86" s="61"/>
+      <c r="F86" s="53" t="s">
         <v>298</v>
       </c>
-      <c r="G86" s="60"/>
-      <c r="H86" s="61"/>
+      <c r="G86" s="67"/>
+      <c r="H86" s="68"/>
       <c r="I86" s="24" t="s">
         <v>55</v>
       </c>
@@ -17354,22 +17337,22 @@
         <v>299</v>
       </c>
     </row>
-    <row r="87" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:25">
       <c r="B87" s="19">
         <v>83</v>
       </c>
       <c r="C87" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D87" s="65" t="s">
+      <c r="D87" s="60" t="s">
         <v>301</v>
       </c>
-      <c r="E87" s="66"/>
-      <c r="F87" s="52" t="s">
+      <c r="E87" s="61"/>
+      <c r="F87" s="53" t="s">
         <v>302</v>
       </c>
-      <c r="G87" s="60"/>
-      <c r="H87" s="61"/>
+      <c r="G87" s="67"/>
+      <c r="H87" s="68"/>
       <c r="I87" s="24" t="s">
         <v>55</v>
       </c>
@@ -17396,22 +17379,22 @@
         <v>303</v>
       </c>
     </row>
-    <row r="88" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:25">
       <c r="B88" s="19">
         <v>84</v>
       </c>
       <c r="C88" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D88" s="65" t="s">
+      <c r="D88" s="60" t="s">
         <v>304</v>
       </c>
-      <c r="E88" s="66"/>
-      <c r="F88" s="52" t="s">
+      <c r="E88" s="61"/>
+      <c r="F88" s="53" t="s">
         <v>305</v>
       </c>
-      <c r="G88" s="60"/>
-      <c r="H88" s="61"/>
+      <c r="G88" s="67"/>
+      <c r="H88" s="68"/>
       <c r="I88" s="24" t="s">
         <v>55</v>
       </c>
@@ -17438,22 +17421,22 @@
         <v>307</v>
       </c>
     </row>
-    <row r="89" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:25">
       <c r="B89" s="19">
         <v>85</v>
       </c>
       <c r="C89" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D89" s="65" t="s">
+      <c r="D89" s="60" t="s">
         <v>308</v>
       </c>
-      <c r="E89" s="66"/>
-      <c r="F89" s="52" t="s">
+      <c r="E89" s="61"/>
+      <c r="F89" s="53" t="s">
         <v>309</v>
       </c>
-      <c r="G89" s="60"/>
-      <c r="H89" s="61"/>
+      <c r="G89" s="67"/>
+      <c r="H89" s="68"/>
       <c r="I89" s="24" t="s">
         <v>55</v>
       </c>
@@ -17465,10 +17448,10 @@
       </c>
       <c r="L89" s="5"/>
       <c r="M89" s="9"/>
-      <c r="N89" s="52" t="s">
+      <c r="N89" s="53" t="s">
         <v>311</v>
       </c>
-      <c r="O89" s="53"/>
+      <c r="O89" s="54"/>
       <c r="P89" s="27"/>
       <c r="Q89" s="31">
         <v>40330</v>
@@ -17480,22 +17463,22 @@
         <v>312</v>
       </c>
     </row>
-    <row r="90" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:25">
       <c r="B90" s="19">
         <v>86</v>
       </c>
       <c r="C90" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D90" s="65" t="s">
+      <c r="D90" s="60" t="s">
         <v>313</v>
       </c>
-      <c r="E90" s="66"/>
-      <c r="F90" s="52" t="s">
+      <c r="E90" s="61"/>
+      <c r="F90" s="53" t="s">
         <v>314</v>
       </c>
-      <c r="G90" s="60"/>
-      <c r="H90" s="61"/>
+      <c r="G90" s="67"/>
+      <c r="H90" s="68"/>
       <c r="I90" s="24" t="s">
         <v>55</v>
       </c>
@@ -17507,10 +17490,10 @@
       </c>
       <c r="L90" s="5"/>
       <c r="M90" s="9"/>
-      <c r="N90" s="52" t="s">
+      <c r="N90" s="53" t="s">
         <v>315</v>
       </c>
-      <c r="O90" s="53"/>
+      <c r="O90" s="54"/>
       <c r="P90" s="27"/>
       <c r="Q90" s="31">
         <v>40267</v>
@@ -17522,22 +17505,22 @@
         <v>316</v>
       </c>
     </row>
-    <row r="91" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:25" ht="13.5" customHeight="1">
       <c r="B91" s="19">
         <v>87</v>
       </c>
       <c r="C91" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D91" s="65" t="s">
+      <c r="D91" s="60" t="s">
         <v>318</v>
       </c>
-      <c r="E91" s="66"/>
-      <c r="F91" s="59" t="s">
+      <c r="E91" s="61"/>
+      <c r="F91" s="74" t="s">
         <v>317</v>
       </c>
-      <c r="G91" s="69"/>
-      <c r="H91" s="70"/>
+      <c r="G91" s="75"/>
+      <c r="H91" s="76"/>
       <c r="I91" s="24" t="s">
         <v>55</v>
       </c>
@@ -17565,22 +17548,22 @@
       </c>
       <c r="U91" s="32"/>
     </row>
-    <row r="92" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:25">
       <c r="B92" s="19">
         <v>88</v>
       </c>
       <c r="C92" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D92" s="65" t="s">
+      <c r="D92" s="60" t="s">
         <v>321</v>
       </c>
-      <c r="E92" s="66"/>
-      <c r="F92" s="52" t="s">
+      <c r="E92" s="61"/>
+      <c r="F92" s="53" t="s">
         <v>322</v>
       </c>
-      <c r="G92" s="60"/>
-      <c r="H92" s="61"/>
+      <c r="G92" s="67"/>
+      <c r="H92" s="68"/>
       <c r="I92" s="24" t="s">
         <v>55</v>
       </c>
@@ -17607,22 +17590,22 @@
         <v>324</v>
       </c>
     </row>
-    <row r="93" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:25">
       <c r="B93" s="19">
         <v>89</v>
       </c>
       <c r="C93" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D93" s="65" t="s">
+      <c r="D93" s="60" t="s">
         <v>360</v>
       </c>
-      <c r="E93" s="66"/>
-      <c r="F93" s="52" t="s">
+      <c r="E93" s="61"/>
+      <c r="F93" s="53" t="s">
         <v>361</v>
       </c>
-      <c r="G93" s="60"/>
-      <c r="H93" s="61"/>
+      <c r="G93" s="67"/>
+      <c r="H93" s="68"/>
       <c r="I93" s="24" t="s">
         <v>56</v>
       </c>
@@ -17634,10 +17617,10 @@
       </c>
       <c r="L93" s="5"/>
       <c r="M93" s="9"/>
-      <c r="N93" s="52" t="s">
+      <c r="N93" s="53" t="s">
         <v>363</v>
       </c>
-      <c r="O93" s="53"/>
+      <c r="O93" s="54"/>
       <c r="P93" s="27"/>
       <c r="Q93" s="31">
         <v>40602</v>
@@ -17649,22 +17632,22 @@
         <v>364</v>
       </c>
     </row>
-    <row r="94" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:25">
       <c r="B94" s="19">
         <v>90</v>
       </c>
       <c r="C94" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D94" s="65" t="s">
+      <c r="D94" s="60" t="s">
         <v>327</v>
       </c>
-      <c r="E94" s="66"/>
-      <c r="F94" s="52" t="s">
+      <c r="E94" s="61"/>
+      <c r="F94" s="53" t="s">
         <v>366</v>
       </c>
-      <c r="G94" s="60"/>
-      <c r="H94" s="61"/>
+      <c r="G94" s="67"/>
+      <c r="H94" s="68"/>
       <c r="I94" s="24" t="s">
         <v>35</v>
       </c>
@@ -17691,22 +17674,22 @@
         <v>329</v>
       </c>
     </row>
-    <row r="95" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:25">
       <c r="B95" s="19">
         <v>91</v>
       </c>
       <c r="C95" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D95" s="65" t="s">
+      <c r="D95" s="60" t="s">
         <v>330</v>
       </c>
-      <c r="E95" s="66"/>
-      <c r="F95" s="52" t="s">
+      <c r="E95" s="61"/>
+      <c r="F95" s="53" t="s">
         <v>331</v>
       </c>
-      <c r="G95" s="60"/>
-      <c r="H95" s="61"/>
+      <c r="G95" s="67"/>
+      <c r="H95" s="68"/>
       <c r="I95" s="24" t="s">
         <v>55</v>
       </c>
@@ -17738,22 +17721,22 @@
       <c r="X95" s="32"/>
       <c r="Y95" s="32"/>
     </row>
-    <row r="96" spans="2:25" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:25">
       <c r="B96" s="19">
         <v>92</v>
       </c>
       <c r="C96" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D96" s="65" t="s">
+      <c r="D96" s="60" t="s">
         <v>334</v>
       </c>
-      <c r="E96" s="66"/>
-      <c r="F96" s="52" t="s">
+      <c r="E96" s="61"/>
+      <c r="F96" s="53" t="s">
         <v>335</v>
       </c>
-      <c r="G96" s="60"/>
-      <c r="H96" s="61"/>
+      <c r="G96" s="67"/>
+      <c r="H96" s="68"/>
       <c r="I96" s="24" t="s">
         <v>55</v>
       </c>
@@ -17780,22 +17763,22 @@
         <v>341</v>
       </c>
     </row>
-    <row r="97" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:22">
       <c r="B97" s="19">
         <v>93</v>
       </c>
       <c r="C97" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D97" s="65" t="s">
+      <c r="D97" s="60" t="s">
         <v>337</v>
       </c>
-      <c r="E97" s="66"/>
-      <c r="F97" s="52" t="s">
+      <c r="E97" s="61"/>
+      <c r="F97" s="53" t="s">
         <v>338</v>
       </c>
-      <c r="G97" s="60"/>
-      <c r="H97" s="61"/>
+      <c r="G97" s="67"/>
+      <c r="H97" s="68"/>
       <c r="I97" s="24" t="s">
         <v>55</v>
       </c>
@@ -17807,10 +17790,10 @@
       </c>
       <c r="L97" s="5"/>
       <c r="M97" s="9"/>
-      <c r="N97" s="52" t="s">
+      <c r="N97" s="53" t="s">
         <v>340</v>
       </c>
-      <c r="O97" s="53"/>
+      <c r="O97" s="54"/>
       <c r="P97" s="27"/>
       <c r="Q97" s="31">
         <v>40437</v>
@@ -17823,22 +17806,22 @@
       </c>
       <c r="U97" s="32"/>
     </row>
-    <row r="98" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:22">
       <c r="B98" s="19">
         <v>94</v>
       </c>
       <c r="C98" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D98" s="65" t="s">
+      <c r="D98" s="60" t="s">
         <v>339</v>
       </c>
-      <c r="E98" s="66"/>
-      <c r="F98" s="52" t="s">
+      <c r="E98" s="61"/>
+      <c r="F98" s="53" t="s">
         <v>338</v>
       </c>
-      <c r="G98" s="60"/>
-      <c r="H98" s="61"/>
+      <c r="G98" s="67"/>
+      <c r="H98" s="68"/>
       <c r="I98" s="24" t="s">
         <v>55</v>
       </c>
@@ -17865,22 +17848,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="99" spans="2:22">
       <c r="B99" s="19">
         <v>95</v>
       </c>
       <c r="C99" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D99" s="65" t="s">
+      <c r="D99" s="60" t="s">
         <v>342</v>
       </c>
-      <c r="E99" s="66"/>
-      <c r="F99" s="52" t="s">
+      <c r="E99" s="61"/>
+      <c r="F99" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="G99" s="60"/>
-      <c r="H99" s="61"/>
+      <c r="G99" s="67"/>
+      <c r="H99" s="68"/>
       <c r="I99" s="24" t="s">
         <v>35</v>
       </c>
@@ -17908,22 +17891,22 @@
       </c>
       <c r="U99" s="32"/>
     </row>
-    <row r="100" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:22">
       <c r="B100" s="19">
         <v>96</v>
       </c>
       <c r="C100" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D100" s="65" t="s">
+      <c r="D100" s="60" t="s">
         <v>344</v>
       </c>
-      <c r="E100" s="66"/>
-      <c r="F100" s="52" t="s">
+      <c r="E100" s="61"/>
+      <c r="F100" s="53" t="s">
         <v>345</v>
       </c>
-      <c r="G100" s="60"/>
-      <c r="H100" s="61"/>
+      <c r="G100" s="67"/>
+      <c r="H100" s="68"/>
       <c r="I100" s="24" t="s">
         <v>55</v>
       </c>
@@ -17951,22 +17934,22 @@
       </c>
       <c r="U100" s="32"/>
     </row>
-    <row r="101" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:22">
       <c r="B101" s="19">
         <v>97</v>
       </c>
       <c r="C101" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D101" s="65" t="s">
+      <c r="D101" s="60" t="s">
         <v>347</v>
       </c>
-      <c r="E101" s="66"/>
-      <c r="F101" s="52" t="s">
+      <c r="E101" s="61"/>
+      <c r="F101" s="53" t="s">
         <v>348</v>
       </c>
-      <c r="G101" s="60"/>
-      <c r="H101" s="61"/>
+      <c r="G101" s="67"/>
+      <c r="H101" s="68"/>
       <c r="I101" s="24" t="s">
         <v>55</v>
       </c>
@@ -17993,22 +17976,22 @@
         <v>351</v>
       </c>
     </row>
-    <row r="102" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:22">
       <c r="B102" s="19">
         <v>98</v>
       </c>
       <c r="C102" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D102" s="65" t="s">
+      <c r="D102" s="60" t="s">
         <v>352</v>
       </c>
-      <c r="E102" s="66"/>
-      <c r="F102" s="52" t="s">
+      <c r="E102" s="61"/>
+      <c r="F102" s="53" t="s">
         <v>325</v>
       </c>
-      <c r="G102" s="60"/>
-      <c r="H102" s="61"/>
+      <c r="G102" s="67"/>
+      <c r="H102" s="68"/>
       <c r="I102" s="24" t="s">
         <v>55</v>
       </c>
@@ -18020,10 +18003,10 @@
       </c>
       <c r="L102" s="5"/>
       <c r="M102" s="9"/>
-      <c r="N102" s="52" t="s">
+      <c r="N102" s="53" t="s">
         <v>315</v>
       </c>
-      <c r="O102" s="53"/>
+      <c r="O102" s="54"/>
       <c r="P102" s="27"/>
       <c r="Q102" s="31">
         <v>40162</v>
@@ -18035,22 +18018,22 @@
         <v>326</v>
       </c>
     </row>
-    <row r="103" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:22">
       <c r="B103" s="19">
         <v>99</v>
       </c>
       <c r="C103" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D103" s="65" t="s">
+      <c r="D103" s="60" t="s">
         <v>357</v>
       </c>
-      <c r="E103" s="66"/>
-      <c r="F103" s="52" t="s">
+      <c r="E103" s="61"/>
+      <c r="F103" s="53" t="s">
         <v>358</v>
       </c>
-      <c r="G103" s="60"/>
-      <c r="H103" s="61"/>
+      <c r="G103" s="67"/>
+      <c r="H103" s="68"/>
       <c r="I103" s="24" t="s">
         <v>55</v>
       </c>
@@ -18077,22 +18060,22 @@
         <v>359</v>
       </c>
     </row>
-    <row r="104" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:22">
       <c r="B104" s="19">
         <v>100</v>
       </c>
       <c r="C104" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D104" s="65" t="s">
+      <c r="D104" s="60" t="s">
         <v>353</v>
       </c>
-      <c r="E104" s="66"/>
-      <c r="F104" s="59" t="s">
+      <c r="E104" s="61"/>
+      <c r="F104" s="74" t="s">
         <v>354</v>
       </c>
-      <c r="G104" s="60"/>
-      <c r="H104" s="61"/>
+      <c r="G104" s="67"/>
+      <c r="H104" s="68"/>
       <c r="I104" s="24" t="s">
         <v>55</v>
       </c>
@@ -18119,14 +18102,14 @@
         <v>356</v>
       </c>
     </row>
-    <row r="105" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="105" spans="2:22">
       <c r="B105" s="19"/>
       <c r="C105" s="8"/>
-      <c r="D105" s="65"/>
-      <c r="E105" s="66"/>
-      <c r="F105" s="53"/>
-      <c r="G105" s="62"/>
-      <c r="H105" s="63"/>
+      <c r="D105" s="60"/>
+      <c r="E105" s="61"/>
+      <c r="F105" s="54"/>
+      <c r="G105" s="79"/>
+      <c r="H105" s="80"/>
       <c r="I105" s="24"/>
       <c r="J105" s="21"/>
       <c r="K105" s="8"/>
@@ -18141,14 +18124,14 @@
       <c r="U105" s="32"/>
       <c r="V105" s="32"/>
     </row>
-    <row r="106" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:22">
       <c r="B106" s="19"/>
       <c r="C106" s="8"/>
-      <c r="D106" s="65"/>
-      <c r="E106" s="66"/>
-      <c r="F106" s="53"/>
-      <c r="G106" s="62"/>
-      <c r="H106" s="63"/>
+      <c r="D106" s="60"/>
+      <c r="E106" s="61"/>
+      <c r="F106" s="54"/>
+      <c r="G106" s="79"/>
+      <c r="H106" s="80"/>
       <c r="I106" s="24"/>
       <c r="J106" s="21"/>
       <c r="K106" s="8"/>
@@ -18162,14 +18145,14 @@
       <c r="S106" s="31"/>
       <c r="U106" s="32"/>
     </row>
-    <row r="107" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="107" spans="2:22">
       <c r="B107" s="19"/>
       <c r="C107" s="8"/>
-      <c r="D107" s="65"/>
-      <c r="E107" s="66"/>
-      <c r="F107" s="53"/>
-      <c r="G107" s="62"/>
-      <c r="H107" s="63"/>
+      <c r="D107" s="60"/>
+      <c r="E107" s="61"/>
+      <c r="F107" s="54"/>
+      <c r="G107" s="79"/>
+      <c r="H107" s="80"/>
       <c r="I107" s="24"/>
       <c r="J107" s="21"/>
       <c r="K107" s="8"/>
@@ -18182,14 +18165,14 @@
       <c r="R107" s="31"/>
       <c r="S107" s="31"/>
     </row>
-    <row r="108" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="108" spans="2:22">
       <c r="B108" s="19"/>
       <c r="C108" s="8"/>
-      <c r="D108" s="65"/>
-      <c r="E108" s="66"/>
-      <c r="F108" s="53"/>
-      <c r="G108" s="62"/>
-      <c r="H108" s="63"/>
+      <c r="D108" s="60"/>
+      <c r="E108" s="61"/>
+      <c r="F108" s="54"/>
+      <c r="G108" s="79"/>
+      <c r="H108" s="80"/>
       <c r="I108" s="24"/>
       <c r="J108" s="21"/>
       <c r="K108" s="8"/>
@@ -18203,14 +18186,14 @@
       <c r="S108" s="31"/>
       <c r="U108" s="32"/>
     </row>
-    <row r="109" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="109" spans="2:22">
       <c r="B109" s="19"/>
       <c r="C109" s="8"/>
-      <c r="D109" s="65"/>
-      <c r="E109" s="66"/>
-      <c r="F109" s="53"/>
-      <c r="G109" s="62"/>
-      <c r="H109" s="63"/>
+      <c r="D109" s="60"/>
+      <c r="E109" s="61"/>
+      <c r="F109" s="54"/>
+      <c r="G109" s="79"/>
+      <c r="H109" s="80"/>
       <c r="I109" s="24"/>
       <c r="J109" s="21"/>
       <c r="K109" s="8"/>
@@ -18223,14 +18206,14 @@
       <c r="R109" s="31"/>
       <c r="S109" s="31"/>
     </row>
-    <row r="110" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="110" spans="2:22">
       <c r="B110" s="19"/>
       <c r="C110" s="8"/>
-      <c r="D110" s="65"/>
-      <c r="E110" s="66"/>
-      <c r="F110" s="53"/>
-      <c r="G110" s="62"/>
-      <c r="H110" s="63"/>
+      <c r="D110" s="60"/>
+      <c r="E110" s="61"/>
+      <c r="F110" s="54"/>
+      <c r="G110" s="79"/>
+      <c r="H110" s="80"/>
       <c r="I110" s="24"/>
       <c r="J110" s="21"/>
       <c r="K110" s="8"/>
@@ -18245,14 +18228,14 @@
       <c r="T110" s="34"/>
       <c r="U110" s="33"/>
     </row>
-    <row r="111" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="111" spans="2:22">
       <c r="B111" s="19"/>
       <c r="C111" s="8"/>
-      <c r="D111" s="65"/>
-      <c r="E111" s="66"/>
-      <c r="F111" s="53"/>
-      <c r="G111" s="62"/>
-      <c r="H111" s="63"/>
+      <c r="D111" s="60"/>
+      <c r="E111" s="61"/>
+      <c r="F111" s="54"/>
+      <c r="G111" s="79"/>
+      <c r="H111" s="80"/>
       <c r="I111" s="24"/>
       <c r="J111" s="21"/>
       <c r="K111" s="8"/>
@@ -18265,34 +18248,34 @@
       <c r="R111" s="31"/>
       <c r="S111" s="31"/>
     </row>
-    <row r="112" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="112" spans="2:22">
       <c r="B112" s="19"/>
       <c r="C112" s="8"/>
-      <c r="D112" s="65"/>
-      <c r="E112" s="66"/>
-      <c r="F112" s="53"/>
-      <c r="G112" s="62"/>
-      <c r="H112" s="63"/>
+      <c r="D112" s="60"/>
+      <c r="E112" s="61"/>
+      <c r="F112" s="54"/>
+      <c r="G112" s="79"/>
+      <c r="H112" s="80"/>
       <c r="I112" s="24"/>
       <c r="J112" s="21"/>
       <c r="K112" s="8"/>
       <c r="L112" s="5"/>
       <c r="M112" s="9"/>
-      <c r="N112" s="52"/>
-      <c r="O112" s="53"/>
+      <c r="N112" s="53"/>
+      <c r="O112" s="54"/>
       <c r="P112" s="27"/>
       <c r="Q112" s="31"/>
       <c r="R112" s="31"/>
       <c r="S112" s="31"/>
     </row>
-    <row r="113" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="113" spans="2:26">
       <c r="B113" s="19"/>
       <c r="C113" s="8"/>
-      <c r="D113" s="65"/>
-      <c r="E113" s="66"/>
-      <c r="F113" s="53"/>
-      <c r="G113" s="62"/>
-      <c r="H113" s="63"/>
+      <c r="D113" s="60"/>
+      <c r="E113" s="61"/>
+      <c r="F113" s="54"/>
+      <c r="G113" s="79"/>
+      <c r="H113" s="80"/>
       <c r="I113" s="24"/>
       <c r="J113" s="21"/>
       <c r="K113" s="8"/>
@@ -18307,14 +18290,14 @@
       <c r="U113" s="32"/>
       <c r="V113" s="32"/>
     </row>
-    <row r="114" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="114" spans="2:26">
       <c r="B114" s="19"/>
       <c r="C114" s="8"/>
-      <c r="D114" s="65"/>
-      <c r="E114" s="66"/>
-      <c r="F114" s="53"/>
-      <c r="G114" s="62"/>
-      <c r="H114" s="63"/>
+      <c r="D114" s="60"/>
+      <c r="E114" s="61"/>
+      <c r="F114" s="54"/>
+      <c r="G114" s="79"/>
+      <c r="H114" s="80"/>
       <c r="I114" s="24"/>
       <c r="J114" s="21"/>
       <c r="K114" s="8"/>
@@ -18327,14 +18310,14 @@
       <c r="R114" s="31"/>
       <c r="S114" s="31"/>
     </row>
-    <row r="115" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="115" spans="2:26">
       <c r="B115" s="19"/>
       <c r="C115" s="8"/>
-      <c r="D115" s="65"/>
-      <c r="E115" s="66"/>
-      <c r="F115" s="53"/>
-      <c r="G115" s="62"/>
-      <c r="H115" s="63"/>
+      <c r="D115" s="60"/>
+      <c r="E115" s="61"/>
+      <c r="F115" s="54"/>
+      <c r="G115" s="79"/>
+      <c r="H115" s="80"/>
       <c r="I115" s="24"/>
       <c r="J115" s="21"/>
       <c r="K115" s="8"/>
@@ -18347,14 +18330,14 @@
       <c r="R115" s="31"/>
       <c r="S115" s="31"/>
     </row>
-    <row r="116" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="116" spans="2:26">
       <c r="B116" s="19"/>
       <c r="C116" s="8"/>
-      <c r="D116" s="65"/>
-      <c r="E116" s="66"/>
-      <c r="F116" s="53"/>
-      <c r="G116" s="62"/>
-      <c r="H116" s="63"/>
+      <c r="D116" s="60"/>
+      <c r="E116" s="61"/>
+      <c r="F116" s="54"/>
+      <c r="G116" s="79"/>
+      <c r="H116" s="80"/>
       <c r="I116" s="24"/>
       <c r="J116" s="21"/>
       <c r="K116" s="8"/>
@@ -18368,14 +18351,14 @@
       <c r="S116" s="31"/>
       <c r="U116" s="32"/>
     </row>
-    <row r="117" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="117" spans="2:26">
       <c r="B117" s="19"/>
       <c r="C117" s="8"/>
-      <c r="D117" s="65"/>
-      <c r="E117" s="66"/>
-      <c r="F117" s="53"/>
-      <c r="G117" s="62"/>
-      <c r="H117" s="63"/>
+      <c r="D117" s="60"/>
+      <c r="E117" s="61"/>
+      <c r="F117" s="54"/>
+      <c r="G117" s="79"/>
+      <c r="H117" s="80"/>
       <c r="I117" s="24"/>
       <c r="J117" s="21"/>
       <c r="K117" s="8"/>
@@ -18390,14 +18373,14 @@
       <c r="U117" s="32"/>
       <c r="V117" s="32"/>
     </row>
-    <row r="118" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="118" spans="2:26">
       <c r="B118" s="19"/>
       <c r="C118" s="8"/>
-      <c r="D118" s="65"/>
-      <c r="E118" s="66"/>
-      <c r="F118" s="53"/>
-      <c r="G118" s="62"/>
-      <c r="H118" s="63"/>
+      <c r="D118" s="60"/>
+      <c r="E118" s="61"/>
+      <c r="F118" s="54"/>
+      <c r="G118" s="79"/>
+      <c r="H118" s="80"/>
       <c r="I118" s="24"/>
       <c r="J118" s="21"/>
       <c r="K118" s="8"/>
@@ -18413,14 +18396,14 @@
       <c r="V118" s="33"/>
       <c r="W118" s="33"/>
     </row>
-    <row r="119" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="119" spans="2:26">
       <c r="B119" s="19"/>
       <c r="C119" s="8"/>
-      <c r="D119" s="65"/>
-      <c r="E119" s="66"/>
-      <c r="F119" s="53"/>
-      <c r="G119" s="62"/>
-      <c r="H119" s="63"/>
+      <c r="D119" s="60"/>
+      <c r="E119" s="61"/>
+      <c r="F119" s="54"/>
+      <c r="G119" s="79"/>
+      <c r="H119" s="80"/>
       <c r="I119" s="24"/>
       <c r="J119" s="21"/>
       <c r="K119" s="8"/>
@@ -18434,14 +18417,14 @@
       <c r="S119" s="31"/>
       <c r="U119" s="33"/>
     </row>
-    <row r="120" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="120" spans="2:26">
       <c r="B120" s="19"/>
       <c r="C120" s="8"/>
-      <c r="D120" s="65"/>
-      <c r="E120" s="66"/>
-      <c r="F120" s="53"/>
-      <c r="G120" s="62"/>
-      <c r="H120" s="63"/>
+      <c r="D120" s="60"/>
+      <c r="E120" s="61"/>
+      <c r="F120" s="54"/>
+      <c r="G120" s="79"/>
+      <c r="H120" s="80"/>
       <c r="I120" s="24"/>
       <c r="J120" s="21"/>
       <c r="K120" s="8"/>
@@ -18454,14 +18437,14 @@
       <c r="R120" s="31"/>
       <c r="S120" s="31"/>
     </row>
-    <row r="121" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="121" spans="2:26">
       <c r="B121" s="19"/>
       <c r="C121" s="8"/>
-      <c r="D121" s="65"/>
-      <c r="E121" s="66"/>
-      <c r="F121" s="64"/>
-      <c r="G121" s="62"/>
-      <c r="H121" s="63"/>
+      <c r="D121" s="60"/>
+      <c r="E121" s="61"/>
+      <c r="F121" s="78"/>
+      <c r="G121" s="79"/>
+      <c r="H121" s="80"/>
       <c r="I121" s="24"/>
       <c r="J121" s="21"/>
       <c r="K121" s="8"/>
@@ -18480,14 +18463,14 @@
       <c r="Y121" s="33"/>
       <c r="Z121" s="33"/>
     </row>
-    <row r="122" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="122" spans="2:26">
       <c r="B122" s="19"/>
       <c r="C122" s="8"/>
-      <c r="D122" s="65"/>
-      <c r="E122" s="66"/>
-      <c r="F122" s="53"/>
-      <c r="G122" s="62"/>
-      <c r="H122" s="63"/>
+      <c r="D122" s="60"/>
+      <c r="E122" s="61"/>
+      <c r="F122" s="54"/>
+      <c r="G122" s="79"/>
+      <c r="H122" s="80"/>
       <c r="I122" s="24"/>
       <c r="J122" s="21"/>
       <c r="K122" s="8"/>
@@ -18500,14 +18483,14 @@
       <c r="R122" s="31"/>
       <c r="S122" s="31"/>
     </row>
-    <row r="123" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="123" spans="2:26">
       <c r="B123" s="19"/>
       <c r="C123" s="8"/>
-      <c r="D123" s="65"/>
-      <c r="E123" s="66"/>
-      <c r="F123" s="53"/>
-      <c r="G123" s="62"/>
-      <c r="H123" s="63"/>
+      <c r="D123" s="60"/>
+      <c r="E123" s="61"/>
+      <c r="F123" s="54"/>
+      <c r="G123" s="79"/>
+      <c r="H123" s="80"/>
       <c r="I123" s="24"/>
       <c r="J123" s="21"/>
       <c r="K123" s="8"/>
@@ -18520,14 +18503,14 @@
       <c r="R123" s="31"/>
       <c r="S123" s="31"/>
     </row>
-    <row r="124" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="124" spans="2:26">
       <c r="B124" s="19"/>
       <c r="C124" s="8"/>
-      <c r="D124" s="65"/>
-      <c r="E124" s="66"/>
-      <c r="F124" s="53"/>
-      <c r="G124" s="62"/>
-      <c r="H124" s="63"/>
+      <c r="D124" s="60"/>
+      <c r="E124" s="61"/>
+      <c r="F124" s="54"/>
+      <c r="G124" s="79"/>
+      <c r="H124" s="80"/>
       <c r="I124" s="24"/>
       <c r="J124" s="21"/>
       <c r="K124" s="8"/>
@@ -18540,14 +18523,14 @@
       <c r="R124" s="31"/>
       <c r="S124" s="31"/>
     </row>
-    <row r="125" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="125" spans="2:26">
       <c r="B125" s="19"/>
       <c r="C125" s="8"/>
-      <c r="D125" s="65"/>
-      <c r="E125" s="66"/>
-      <c r="F125" s="53"/>
-      <c r="G125" s="62"/>
-      <c r="H125" s="63"/>
+      <c r="D125" s="60"/>
+      <c r="E125" s="61"/>
+      <c r="F125" s="54"/>
+      <c r="G125" s="79"/>
+      <c r="H125" s="80"/>
       <c r="I125" s="24"/>
       <c r="J125" s="21"/>
       <c r="K125" s="8"/>
@@ -18560,14 +18543,14 @@
       <c r="R125" s="31"/>
       <c r="S125" s="31"/>
     </row>
-    <row r="126" spans="2:26" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:26" ht="14.25" thickBot="1">
       <c r="B126" s="19"/>
       <c r="C126" s="10"/>
-      <c r="D126" s="67"/>
-      <c r="E126" s="68"/>
-      <c r="F126" s="54"/>
-      <c r="G126" s="55"/>
-      <c r="H126" s="56"/>
+      <c r="D126" s="81"/>
+      <c r="E126" s="82"/>
+      <c r="F126" s="83"/>
+      <c r="G126" s="84"/>
+      <c r="H126" s="85"/>
       <c r="I126" s="25"/>
       <c r="J126" s="22"/>
       <c r="K126" s="10"/>
@@ -18580,182 +18563,456 @@
       <c r="R126" s="31"/>
       <c r="S126" s="31"/>
     </row>
-    <row r="127" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="D127" s="58"/>
-      <c r="E127" s="58"/>
-      <c r="F127" s="57"/>
-      <c r="G127" s="57"/>
-      <c r="H127" s="57"/>
-    </row>
-    <row r="128" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="D128" s="58"/>
-      <c r="E128" s="58"/>
-      <c r="F128" s="57"/>
-      <c r="G128" s="57"/>
-      <c r="H128" s="57"/>
-    </row>
-    <row r="129" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D129" s="58"/>
-      <c r="E129" s="58"/>
-    </row>
-    <row r="130" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D130" s="58"/>
-      <c r="E130" s="58"/>
-    </row>
-    <row r="131" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D131" s="58"/>
-      <c r="E131" s="58"/>
-    </row>
-    <row r="132" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D132" s="58"/>
-      <c r="E132" s="58"/>
-    </row>
-    <row r="133" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D133" s="58"/>
-      <c r="E133" s="58"/>
-    </row>
-    <row r="134" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D134" s="58"/>
-      <c r="E134" s="58"/>
-    </row>
-    <row r="135" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D135" s="58"/>
-      <c r="E135" s="58"/>
-    </row>
-    <row r="136" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D136" s="58"/>
-      <c r="E136" s="58"/>
-    </row>
-    <row r="137" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D137" s="58"/>
-      <c r="E137" s="58"/>
-    </row>
-    <row r="138" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D138" s="58"/>
-      <c r="E138" s="58"/>
-    </row>
-    <row r="139" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D139" s="58"/>
-      <c r="E139" s="58"/>
-    </row>
-    <row r="140" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D140" s="58"/>
-      <c r="E140" s="58"/>
-    </row>
-    <row r="141" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D141" s="58"/>
-      <c r="E141" s="58"/>
-    </row>
-    <row r="142" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D142" s="58"/>
-      <c r="E142" s="58"/>
-    </row>
-    <row r="143" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D143" s="58"/>
-      <c r="E143" s="58"/>
-    </row>
-    <row r="144" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D144" s="58"/>
-      <c r="E144" s="58"/>
-    </row>
-    <row r="145" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D145" s="58"/>
-      <c r="E145" s="58"/>
-    </row>
-    <row r="146" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D146" s="58"/>
-      <c r="E146" s="58"/>
-    </row>
-    <row r="147" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D147" s="58"/>
-      <c r="E147" s="58"/>
-    </row>
-    <row r="148" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D148" s="58"/>
-      <c r="E148" s="58"/>
-    </row>
-    <row r="149" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D149" s="58"/>
-      <c r="E149" s="58"/>
-    </row>
-    <row r="150" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D150" s="58"/>
-      <c r="E150" s="58"/>
-    </row>
-    <row r="151" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D151" s="58"/>
-      <c r="E151" s="58"/>
-    </row>
-    <row r="152" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D152" s="58"/>
-      <c r="E152" s="58"/>
-    </row>
-    <row r="153" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D153" s="58"/>
-      <c r="E153" s="58"/>
-    </row>
-    <row r="154" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D154" s="58"/>
-      <c r="E154" s="58"/>
-    </row>
-    <row r="155" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D155" s="58"/>
-      <c r="E155" s="58"/>
-    </row>
-    <row r="156" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D156" s="58"/>
-      <c r="E156" s="58"/>
-    </row>
-    <row r="157" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D157" s="58"/>
-      <c r="E157" s="58"/>
-    </row>
-    <row r="158" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D158" s="58"/>
-      <c r="E158" s="58"/>
-    </row>
-    <row r="159" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D159" s="58"/>
-      <c r="E159" s="58"/>
-    </row>
-    <row r="160" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D160" s="58"/>
-      <c r="E160" s="58"/>
-    </row>
-    <row r="161" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D161" s="58"/>
-      <c r="E161" s="58"/>
-    </row>
-    <row r="162" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D162" s="58"/>
-      <c r="E162" s="58"/>
-    </row>
-    <row r="163" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D163" s="58"/>
-      <c r="E163" s="58"/>
-    </row>
-    <row r="164" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D164" s="58"/>
-      <c r="E164" s="58"/>
-    </row>
-    <row r="165" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D165" s="58"/>
-      <c r="E165" s="58"/>
-    </row>
-    <row r="166" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D166" s="58"/>
-      <c r="E166" s="58"/>
-    </row>
-    <row r="167" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D167" s="58"/>
-      <c r="E167" s="58"/>
-    </row>
-    <row r="168" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D168" s="58"/>
-      <c r="E168" s="58"/>
+    <row r="127" spans="2:26">
+      <c r="D127" s="77"/>
+      <c r="E127" s="77"/>
+      <c r="F127" s="86"/>
+      <c r="G127" s="86"/>
+      <c r="H127" s="86"/>
+    </row>
+    <row r="128" spans="2:26">
+      <c r="D128" s="77"/>
+      <c r="E128" s="77"/>
+      <c r="F128" s="86"/>
+      <c r="G128" s="86"/>
+      <c r="H128" s="86"/>
+    </row>
+    <row r="129" spans="4:5">
+      <c r="D129" s="77"/>
+      <c r="E129" s="77"/>
+    </row>
+    <row r="130" spans="4:5">
+      <c r="D130" s="77"/>
+      <c r="E130" s="77"/>
+    </row>
+    <row r="131" spans="4:5">
+      <c r="D131" s="77"/>
+      <c r="E131" s="77"/>
+    </row>
+    <row r="132" spans="4:5">
+      <c r="D132" s="77"/>
+      <c r="E132" s="77"/>
+    </row>
+    <row r="133" spans="4:5">
+      <c r="D133" s="77"/>
+      <c r="E133" s="77"/>
+    </row>
+    <row r="134" spans="4:5">
+      <c r="D134" s="77"/>
+      <c r="E134" s="77"/>
+    </row>
+    <row r="135" spans="4:5">
+      <c r="D135" s="77"/>
+      <c r="E135" s="77"/>
+    </row>
+    <row r="136" spans="4:5">
+      <c r="D136" s="77"/>
+      <c r="E136" s="77"/>
+    </row>
+    <row r="137" spans="4:5">
+      <c r="D137" s="77"/>
+      <c r="E137" s="77"/>
+    </row>
+    <row r="138" spans="4:5">
+      <c r="D138" s="77"/>
+      <c r="E138" s="77"/>
+    </row>
+    <row r="139" spans="4:5">
+      <c r="D139" s="77"/>
+      <c r="E139" s="77"/>
+    </row>
+    <row r="140" spans="4:5">
+      <c r="D140" s="77"/>
+      <c r="E140" s="77"/>
+    </row>
+    <row r="141" spans="4:5">
+      <c r="D141" s="77"/>
+      <c r="E141" s="77"/>
+    </row>
+    <row r="142" spans="4:5">
+      <c r="D142" s="77"/>
+      <c r="E142" s="77"/>
+    </row>
+    <row r="143" spans="4:5">
+      <c r="D143" s="77"/>
+      <c r="E143" s="77"/>
+    </row>
+    <row r="144" spans="4:5">
+      <c r="D144" s="77"/>
+      <c r="E144" s="77"/>
+    </row>
+    <row r="145" spans="4:5">
+      <c r="D145" s="77"/>
+      <c r="E145" s="77"/>
+    </row>
+    <row r="146" spans="4:5">
+      <c r="D146" s="77"/>
+      <c r="E146" s="77"/>
+    </row>
+    <row r="147" spans="4:5">
+      <c r="D147" s="77"/>
+      <c r="E147" s="77"/>
+    </row>
+    <row r="148" spans="4:5">
+      <c r="D148" s="77"/>
+      <c r="E148" s="77"/>
+    </row>
+    <row r="149" spans="4:5">
+      <c r="D149" s="77"/>
+      <c r="E149" s="77"/>
+    </row>
+    <row r="150" spans="4:5">
+      <c r="D150" s="77"/>
+      <c r="E150" s="77"/>
+    </row>
+    <row r="151" spans="4:5">
+      <c r="D151" s="77"/>
+      <c r="E151" s="77"/>
+    </row>
+    <row r="152" spans="4:5">
+      <c r="D152" s="77"/>
+      <c r="E152" s="77"/>
+    </row>
+    <row r="153" spans="4:5">
+      <c r="D153" s="77"/>
+      <c r="E153" s="77"/>
+    </row>
+    <row r="154" spans="4:5">
+      <c r="D154" s="77"/>
+      <c r="E154" s="77"/>
+    </row>
+    <row r="155" spans="4:5">
+      <c r="D155" s="77"/>
+      <c r="E155" s="77"/>
+    </row>
+    <row r="156" spans="4:5">
+      <c r="D156" s="77"/>
+      <c r="E156" s="77"/>
+    </row>
+    <row r="157" spans="4:5">
+      <c r="D157" s="77"/>
+      <c r="E157" s="77"/>
+    </row>
+    <row r="158" spans="4:5">
+      <c r="D158" s="77"/>
+      <c r="E158" s="77"/>
+    </row>
+    <row r="159" spans="4:5">
+      <c r="D159" s="77"/>
+      <c r="E159" s="77"/>
+    </row>
+    <row r="160" spans="4:5">
+      <c r="D160" s="77"/>
+      <c r="E160" s="77"/>
+    </row>
+    <row r="161" spans="4:5">
+      <c r="D161" s="77"/>
+      <c r="E161" s="77"/>
+    </row>
+    <row r="162" spans="4:5">
+      <c r="D162" s="77"/>
+      <c r="E162" s="77"/>
+    </row>
+    <row r="163" spans="4:5">
+      <c r="D163" s="77"/>
+      <c r="E163" s="77"/>
+    </row>
+    <row r="164" spans="4:5">
+      <c r="D164" s="77"/>
+      <c r="E164" s="77"/>
+    </row>
+    <row r="165" spans="4:5">
+      <c r="D165" s="77"/>
+      <c r="E165" s="77"/>
+    </row>
+    <row r="166" spans="4:5">
+      <c r="D166" s="77"/>
+      <c r="E166" s="77"/>
+    </row>
+    <row r="167" spans="4:5">
+      <c r="D167" s="77"/>
+      <c r="E167" s="77"/>
+    </row>
+    <row r="168" spans="4:5">
+      <c r="D168" s="77"/>
+      <c r="E168" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="298">
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="F126:H126"/>
+    <mergeCell ref="F127:H127"/>
+    <mergeCell ref="F128:H128"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="D168:E168"/>
+    <mergeCell ref="F104:H104"/>
+    <mergeCell ref="F105:H105"/>
+    <mergeCell ref="F106:H106"/>
+    <mergeCell ref="F107:H107"/>
+    <mergeCell ref="F108:H108"/>
+    <mergeCell ref="F109:H109"/>
+    <mergeCell ref="F110:H110"/>
+    <mergeCell ref="F111:H111"/>
+    <mergeCell ref="F112:H112"/>
+    <mergeCell ref="F113:H113"/>
+    <mergeCell ref="F114:H114"/>
+    <mergeCell ref="F115:H115"/>
+    <mergeCell ref="F116:H116"/>
+    <mergeCell ref="F117:H117"/>
+    <mergeCell ref="F118:H118"/>
+    <mergeCell ref="F119:H119"/>
+    <mergeCell ref="F120:H120"/>
+    <mergeCell ref="F121:H121"/>
+    <mergeCell ref="F122:H122"/>
+    <mergeCell ref="F123:H123"/>
+    <mergeCell ref="F124:H124"/>
+    <mergeCell ref="F125:H125"/>
+    <mergeCell ref="D158:E158"/>
+    <mergeCell ref="D159:E159"/>
+    <mergeCell ref="D160:E160"/>
+    <mergeCell ref="D161:E161"/>
+    <mergeCell ref="D131:E131"/>
+    <mergeCell ref="D132:E132"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="D135:E135"/>
+    <mergeCell ref="D136:E136"/>
+    <mergeCell ref="D137:E137"/>
+    <mergeCell ref="D138:E138"/>
+    <mergeCell ref="D139:E139"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="D124:E124"/>
+    <mergeCell ref="D125:E125"/>
+    <mergeCell ref="D126:E126"/>
+    <mergeCell ref="D127:E127"/>
+    <mergeCell ref="D140:E140"/>
+    <mergeCell ref="D141:E141"/>
+    <mergeCell ref="D142:E142"/>
+    <mergeCell ref="D143:E143"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="D146:E146"/>
+    <mergeCell ref="D147:E147"/>
+    <mergeCell ref="D148:E148"/>
+    <mergeCell ref="D164:E164"/>
+    <mergeCell ref="D165:E165"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="D150:E150"/>
+    <mergeCell ref="D151:E151"/>
+    <mergeCell ref="D152:E152"/>
+    <mergeCell ref="D153:E153"/>
+    <mergeCell ref="D154:E154"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="D157:E157"/>
+    <mergeCell ref="D162:E162"/>
+    <mergeCell ref="D163:E163"/>
+    <mergeCell ref="D128:E128"/>
+    <mergeCell ref="D129:E129"/>
+    <mergeCell ref="D130:E130"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="D118:E118"/>
+    <mergeCell ref="D119:E119"/>
+    <mergeCell ref="D120:E120"/>
+    <mergeCell ref="D121:E121"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F102:H102"/>
+    <mergeCell ref="F103:H103"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F96:H96"/>
+    <mergeCell ref="F97:H97"/>
+    <mergeCell ref="F98:H98"/>
+    <mergeCell ref="F99:H99"/>
+    <mergeCell ref="F100:H100"/>
+    <mergeCell ref="F101:H101"/>
+    <mergeCell ref="F90:H90"/>
+    <mergeCell ref="F91:H91"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F92:H92"/>
+    <mergeCell ref="F93:H93"/>
+    <mergeCell ref="F94:H94"/>
+    <mergeCell ref="F95:H95"/>
+    <mergeCell ref="F84:H84"/>
+    <mergeCell ref="F85:H85"/>
+    <mergeCell ref="F86:H86"/>
+    <mergeCell ref="F87:H87"/>
+    <mergeCell ref="F88:H88"/>
+    <mergeCell ref="F89:H89"/>
+    <mergeCell ref="F78:H78"/>
+    <mergeCell ref="F79:H79"/>
+    <mergeCell ref="F80:H80"/>
+    <mergeCell ref="F81:H81"/>
+    <mergeCell ref="F82:H82"/>
+    <mergeCell ref="F83:H83"/>
+    <mergeCell ref="F72:H72"/>
+    <mergeCell ref="F73:H73"/>
+    <mergeCell ref="F74:H74"/>
+    <mergeCell ref="F75:H75"/>
+    <mergeCell ref="F76:H76"/>
+    <mergeCell ref="F77:H77"/>
+    <mergeCell ref="F66:H66"/>
+    <mergeCell ref="F67:H67"/>
+    <mergeCell ref="F68:H68"/>
+    <mergeCell ref="F69:H69"/>
+    <mergeCell ref="F70:H70"/>
+    <mergeCell ref="F71:H71"/>
+    <mergeCell ref="F60:H60"/>
+    <mergeCell ref="F61:H61"/>
+    <mergeCell ref="F62:H62"/>
+    <mergeCell ref="F63:H63"/>
+    <mergeCell ref="F64:H64"/>
+    <mergeCell ref="F65:H65"/>
+    <mergeCell ref="F54:H54"/>
+    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="F57:H57"/>
+    <mergeCell ref="F58:H58"/>
+    <mergeCell ref="F59:H59"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="F53:H53"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="D5:E5"/>
     <mergeCell ref="N112:O112"/>
     <mergeCell ref="N90:O90"/>
     <mergeCell ref="N89:O89"/>
@@ -18780,280 +19037,6 @@
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="F54:H54"/>
-    <mergeCell ref="F55:H55"/>
-    <mergeCell ref="F56:H56"/>
-    <mergeCell ref="F57:H57"/>
-    <mergeCell ref="F58:H58"/>
-    <mergeCell ref="F59:H59"/>
-    <mergeCell ref="F48:H48"/>
-    <mergeCell ref="F49:H49"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="F52:H52"/>
-    <mergeCell ref="F53:H53"/>
-    <mergeCell ref="F66:H66"/>
-    <mergeCell ref="F67:H67"/>
-    <mergeCell ref="F68:H68"/>
-    <mergeCell ref="F69:H69"/>
-    <mergeCell ref="F70:H70"/>
-    <mergeCell ref="F71:H71"/>
-    <mergeCell ref="F60:H60"/>
-    <mergeCell ref="F61:H61"/>
-    <mergeCell ref="F62:H62"/>
-    <mergeCell ref="F63:H63"/>
-    <mergeCell ref="F64:H64"/>
-    <mergeCell ref="F65:H65"/>
-    <mergeCell ref="F78:H78"/>
-    <mergeCell ref="F79:H79"/>
-    <mergeCell ref="F80:H80"/>
-    <mergeCell ref="F81:H81"/>
-    <mergeCell ref="F82:H82"/>
-    <mergeCell ref="F83:H83"/>
-    <mergeCell ref="F72:H72"/>
-    <mergeCell ref="F73:H73"/>
-    <mergeCell ref="F74:H74"/>
-    <mergeCell ref="F75:H75"/>
-    <mergeCell ref="F76:H76"/>
-    <mergeCell ref="F77:H77"/>
-    <mergeCell ref="F92:H92"/>
-    <mergeCell ref="F93:H93"/>
-    <mergeCell ref="F94:H94"/>
-    <mergeCell ref="F95:H95"/>
-    <mergeCell ref="F84:H84"/>
-    <mergeCell ref="F85:H85"/>
-    <mergeCell ref="F86:H86"/>
-    <mergeCell ref="F87:H87"/>
-    <mergeCell ref="F88:H88"/>
-    <mergeCell ref="F89:H89"/>
-    <mergeCell ref="F102:H102"/>
-    <mergeCell ref="F103:H103"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F96:H96"/>
-    <mergeCell ref="F97:H97"/>
-    <mergeCell ref="F98:H98"/>
-    <mergeCell ref="F99:H99"/>
-    <mergeCell ref="F100:H100"/>
-    <mergeCell ref="F101:H101"/>
-    <mergeCell ref="F90:H90"/>
-    <mergeCell ref="F91:H91"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="D109:E109"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="D128:E128"/>
-    <mergeCell ref="D129:E129"/>
-    <mergeCell ref="D130:E130"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="D115:E115"/>
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="D117:E117"/>
-    <mergeCell ref="D118:E118"/>
-    <mergeCell ref="D119:E119"/>
-    <mergeCell ref="D120:E120"/>
-    <mergeCell ref="D121:E121"/>
-    <mergeCell ref="D164:E164"/>
-    <mergeCell ref="D165:E165"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="D150:E150"/>
-    <mergeCell ref="D151:E151"/>
-    <mergeCell ref="D152:E152"/>
-    <mergeCell ref="D153:E153"/>
-    <mergeCell ref="D154:E154"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="D157:E157"/>
-    <mergeCell ref="D162:E162"/>
-    <mergeCell ref="D163:E163"/>
-    <mergeCell ref="D140:E140"/>
-    <mergeCell ref="D141:E141"/>
-    <mergeCell ref="D142:E142"/>
-    <mergeCell ref="D143:E143"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="D146:E146"/>
-    <mergeCell ref="D147:E147"/>
-    <mergeCell ref="D148:E148"/>
-    <mergeCell ref="F121:H121"/>
-    <mergeCell ref="F122:H122"/>
-    <mergeCell ref="F123:H123"/>
-    <mergeCell ref="F124:H124"/>
-    <mergeCell ref="F125:H125"/>
-    <mergeCell ref="D158:E158"/>
-    <mergeCell ref="D159:E159"/>
-    <mergeCell ref="D160:E160"/>
-    <mergeCell ref="D161:E161"/>
-    <mergeCell ref="D131:E131"/>
-    <mergeCell ref="D132:E132"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="D135:E135"/>
-    <mergeCell ref="D136:E136"/>
-    <mergeCell ref="D137:E137"/>
-    <mergeCell ref="D138:E138"/>
-    <mergeCell ref="D139:E139"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="D124:E124"/>
-    <mergeCell ref="D125:E125"/>
-    <mergeCell ref="D126:E126"/>
-    <mergeCell ref="D127:E127"/>
-    <mergeCell ref="N93:O93"/>
-    <mergeCell ref="N102:O102"/>
-    <mergeCell ref="F126:H126"/>
-    <mergeCell ref="F127:H127"/>
-    <mergeCell ref="F128:H128"/>
-    <mergeCell ref="D167:E167"/>
-    <mergeCell ref="D168:E168"/>
-    <mergeCell ref="F104:H104"/>
-    <mergeCell ref="F105:H105"/>
-    <mergeCell ref="F106:H106"/>
-    <mergeCell ref="F107:H107"/>
-    <mergeCell ref="F108:H108"/>
-    <mergeCell ref="F109:H109"/>
-    <mergeCell ref="F110:H110"/>
-    <mergeCell ref="F111:H111"/>
-    <mergeCell ref="F112:H112"/>
-    <mergeCell ref="F113:H113"/>
-    <mergeCell ref="F114:H114"/>
-    <mergeCell ref="F115:H115"/>
-    <mergeCell ref="F116:H116"/>
-    <mergeCell ref="F117:H117"/>
-    <mergeCell ref="F118:H118"/>
-    <mergeCell ref="F119:H119"/>
-    <mergeCell ref="F120:H120"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19069,7 +19052,7 @@
       <selection activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
@@ -19086,7 +19069,7 @@
     <col min="50" max="66" width="3.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" ht="98.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:67" ht="98.25" customHeight="1">
       <c r="P1" s="36" t="s">
         <v>228</v>
       </c>
@@ -19139,7 +19122,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="2" spans="1:67" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:67">
       <c r="A2" s="38">
         <v>39814</v>
       </c>
@@ -19207,12 +19190,12 @@
       <c r="AH2">
         <v>2</v>
       </c>
-      <c r="AU2" s="86"/>
-      <c r="AV2" s="86"/>
-      <c r="AW2" s="86"/>
-      <c r="AX2" s="86"/>
-    </row>
-    <row r="3" spans="1:67" x14ac:dyDescent="0.15">
+      <c r="AU2" s="87"/>
+      <c r="AV2" s="87"/>
+      <c r="AW2" s="87"/>
+      <c r="AX2" s="87"/>
+    </row>
+    <row r="3" spans="1:67">
       <c r="A3" s="38">
         <v>39845</v>
       </c>
@@ -19283,7 +19266,7 @@
       <c r="AU3" s="38"/>
       <c r="AW3" s="38"/>
     </row>
-    <row r="4" spans="1:67" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:67">
       <c r="A4" s="38">
         <v>39873</v>
       </c>
@@ -19354,7 +19337,7 @@
       <c r="AU4" s="38"/>
       <c r="AW4" s="38"/>
     </row>
-    <row r="5" spans="1:67" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:67">
       <c r="A5" s="38">
         <v>39904</v>
       </c>
@@ -19425,7 +19408,7 @@
       <c r="AU5" s="38"/>
       <c r="AW5" s="38"/>
     </row>
-    <row r="6" spans="1:67" ht="96" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:67" ht="96">
       <c r="A6" s="38">
         <v>39934</v>
       </c>
@@ -19547,7 +19530,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="7" spans="1:67" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:67">
       <c r="A7" s="38">
         <v>39965</v>
       </c>
@@ -19655,7 +19638,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:67" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:67">
       <c r="A8" s="38">
         <v>39995</v>
       </c>
@@ -19765,7 +19748,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:67" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:67">
       <c r="A9" s="38">
         <v>40026</v>
       </c>
@@ -19869,7 +19852,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:67" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:67">
       <c r="A10" s="38">
         <v>40057</v>
       </c>
@@ -19975,7 +19958,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:67" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:67">
       <c r="A11" s="38">
         <v>40087</v>
       </c>
@@ -20046,7 +20029,7 @@
       <c r="AU11" s="38"/>
       <c r="AW11" s="38"/>
     </row>
-    <row r="12" spans="1:67" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:67">
       <c r="A12" s="38">
         <v>40118</v>
       </c>
@@ -20117,7 +20100,7 @@
       <c r="AU12" s="38"/>
       <c r="AW12" s="38"/>
     </row>
-    <row r="13" spans="1:67" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:67">
       <c r="A13" s="38">
         <v>40148</v>
       </c>
@@ -20188,7 +20171,7 @@
       <c r="AU13" s="38"/>
       <c r="AW13" s="38"/>
     </row>
-    <row r="14" spans="1:67" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:67">
       <c r="A14" s="38">
         <v>40179</v>
       </c>
@@ -20259,7 +20242,7 @@
       <c r="AU14" s="38"/>
       <c r="AW14" s="38"/>
     </row>
-    <row r="15" spans="1:67" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:67">
       <c r="A15" s="38">
         <v>40210</v>
       </c>
@@ -20330,7 +20313,7 @@
       <c r="AU15" s="38"/>
       <c r="AW15" s="38"/>
     </row>
-    <row r="16" spans="1:67" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:67">
       <c r="A16" s="38">
         <v>40238</v>
       </c>
@@ -20401,7 +20384,7 @@
       <c r="AU16" s="38"/>
       <c r="AW16" s="38"/>
     </row>
-    <row r="17" spans="1:49" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:49">
       <c r="A17" s="38">
         <v>40269</v>
       </c>
@@ -20472,7 +20455,7 @@
       <c r="AU17" s="38"/>
       <c r="AW17" s="38"/>
     </row>
-    <row r="18" spans="1:49" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:49">
       <c r="A18" s="38">
         <v>40299</v>
       </c>
@@ -20543,7 +20526,7 @@
       <c r="AU18" s="38"/>
       <c r="AW18" s="38"/>
     </row>
-    <row r="19" spans="1:49" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:49">
       <c r="A19" s="38">
         <v>40330</v>
       </c>
@@ -20614,7 +20597,7 @@
       <c r="AU19" s="38"/>
       <c r="AW19" s="38"/>
     </row>
-    <row r="20" spans="1:49" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:49">
       <c r="A20" s="38">
         <v>40360</v>
       </c>
@@ -20685,7 +20668,7 @@
       <c r="AU20" s="38"/>
       <c r="AW20" s="38"/>
     </row>
-    <row r="21" spans="1:49" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:49">
       <c r="A21" s="38">
         <v>40391</v>
       </c>
@@ -20756,7 +20739,7 @@
       <c r="AU21" s="38"/>
       <c r="AW21" s="38"/>
     </row>
-    <row r="22" spans="1:49" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:49">
       <c r="A22" s="38">
         <v>40422</v>
       </c>
@@ -20827,7 +20810,7 @@
       <c r="AU22" s="38"/>
       <c r="AW22" s="38"/>
     </row>
-    <row r="23" spans="1:49" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:49">
       <c r="A23" s="38">
         <v>40452</v>
       </c>
@@ -20898,7 +20881,7 @@
       <c r="AU23" s="38"/>
       <c r="AW23" s="38"/>
     </row>
-    <row r="24" spans="1:49" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:49">
       <c r="A24" s="38">
         <v>40483</v>
       </c>
@@ -20969,7 +20952,7 @@
       <c r="AU24" s="38"/>
       <c r="AW24" s="38"/>
     </row>
-    <row r="25" spans="1:49" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:49">
       <c r="A25" s="38">
         <v>40513</v>
       </c>
@@ -21040,7 +21023,7 @@
       <c r="AU25" s="38"/>
       <c r="AW25" s="38"/>
     </row>
-    <row r="26" spans="1:49" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:49">
       <c r="A26" s="38">
         <v>40544</v>
       </c>
@@ -21108,7 +21091,7 @@
       <c r="AU26" s="38"/>
       <c r="AW26" s="38"/>
     </row>
-    <row r="27" spans="1:49" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:49">
       <c r="A27" s="38">
         <v>40575</v>
       </c>
@@ -21176,7 +21159,7 @@
       <c r="AU27" s="38"/>
       <c r="AW27" s="38"/>
     </row>
-    <row r="28" spans="1:49" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:49">
       <c r="A28" s="38">
         <v>40603</v>
       </c>
@@ -21244,7 +21227,7 @@
       <c r="AU28" s="38"/>
       <c r="AW28" s="38"/>
     </row>
-    <row r="29" spans="1:49" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:49">
       <c r="A29" s="38">
         <v>40634</v>
       </c>
@@ -21324,7 +21307,7 @@
       <c r="AU29" s="38"/>
       <c r="AW29" s="38"/>
     </row>
-    <row r="30" spans="1:49" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:49">
       <c r="A30" s="38">
         <v>40664</v>
       </c>
@@ -21404,7 +21387,7 @@
       <c r="AU30" s="38"/>
       <c r="AW30" s="38"/>
     </row>
-    <row r="31" spans="1:49" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:49">
       <c r="A31" s="38">
         <v>40695</v>
       </c>
@@ -21472,7 +21455,7 @@
       <c r="AU31" s="38"/>
       <c r="AW31" s="38"/>
     </row>
-    <row r="32" spans="1:49" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:49">
       <c r="A32" s="38">
         <v>40725</v>
       </c>
@@ -21540,7 +21523,7 @@
       <c r="AU32" s="38"/>
       <c r="AW32" s="38"/>
     </row>
-    <row r="33" spans="1:49" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:49">
       <c r="A33" s="38">
         <v>40756</v>
       </c>
@@ -21608,7 +21591,7 @@
       <c r="AU33" s="38"/>
       <c r="AW33" s="38"/>
     </row>
-    <row r="34" spans="1:49" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:49">
       <c r="A34" s="38">
         <v>40787</v>
       </c>
@@ -21676,7 +21659,7 @@
       <c r="AU34" s="38"/>
       <c r="AW34" s="38"/>
     </row>
-    <row r="35" spans="1:49" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:49">
       <c r="A35" s="38">
         <v>40817</v>
       </c>
@@ -21744,7 +21727,7 @@
       <c r="AU35" s="38"/>
       <c r="AW35" s="38"/>
     </row>
-    <row r="36" spans="1:49" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:49">
       <c r="A36" s="38">
         <v>40848</v>
       </c>
@@ -21812,7 +21795,7 @@
       <c r="AU36" s="38"/>
       <c r="AW36" s="38"/>
     </row>
-    <row r="37" spans="1:49" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:49">
       <c r="A37" s="38">
         <v>40878</v>
       </c>
@@ -21880,7 +21863,7 @@
       <c r="AU37" s="38"/>
       <c r="AW37" s="38"/>
     </row>
-    <row r="38" spans="1:49" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:49">
       <c r="A38" s="38">
         <v>40909</v>
       </c>
@@ -21948,7 +21931,7 @@
       <c r="AU38" s="38"/>
       <c r="AW38" s="38"/>
     </row>
-    <row r="39" spans="1:49" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:49">
       <c r="A39" s="38">
         <v>40940</v>
       </c>
@@ -22016,7 +21999,7 @@
       <c r="AU39" s="38"/>
       <c r="AW39" s="38"/>
     </row>
-    <row r="40" spans="1:49" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:49">
       <c r="A40" s="38">
         <v>40969</v>
       </c>
@@ -22084,7 +22067,7 @@
       <c r="AU40" s="38"/>
       <c r="AW40" s="38"/>
     </row>
-    <row r="41" spans="1:49" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:49">
       <c r="A41" s="38">
         <v>41000</v>
       </c>
@@ -22152,7 +22135,7 @@
       <c r="AU41" s="38"/>
       <c r="AW41" s="38"/>
     </row>
-    <row r="42" spans="1:49" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:49">
       <c r="A42" s="38">
         <v>41030</v>
       </c>
@@ -22220,7 +22203,7 @@
       <c r="AU42" s="38"/>
       <c r="AW42" s="38"/>
     </row>
-    <row r="43" spans="1:49" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:49">
       <c r="A43" s="38">
         <v>41061</v>
       </c>
@@ -22288,7 +22271,7 @@
       <c r="AU43" s="38"/>
       <c r="AW43" s="38"/>
     </row>
-    <row r="44" spans="1:49" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:49">
       <c r="A44" s="38">
         <v>41091</v>
       </c>
@@ -22356,7 +22339,7 @@
       <c r="AU44" s="38"/>
       <c r="AW44" s="38"/>
     </row>
-    <row r="45" spans="1:49" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:49">
       <c r="A45" s="38">
         <v>41122</v>
       </c>
@@ -22424,7 +22407,7 @@
       <c r="AU45" s="38"/>
       <c r="AW45" s="38"/>
     </row>
-    <row r="46" spans="1:49" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:49">
       <c r="A46" s="38">
         <v>41153</v>
       </c>
@@ -22492,7 +22475,7 @@
       <c r="AU46" s="38"/>
       <c r="AW46" s="38"/>
     </row>
-    <row r="47" spans="1:49" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:49">
       <c r="A47" s="38">
         <v>41183</v>
       </c>
@@ -22560,7 +22543,7 @@
       <c r="AU47" s="38"/>
       <c r="AW47" s="38"/>
     </row>
-    <row r="48" spans="1:49" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:49">
       <c r="A48" s="38">
         <v>41214</v>
       </c>
@@ -22628,7 +22611,7 @@
       <c r="AU48" s="38"/>
       <c r="AW48" s="38"/>
     </row>
-    <row r="49" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:52">
       <c r="A49" s="38">
         <v>41244</v>
       </c>
@@ -22696,7 +22679,7 @@
       <c r="AU49" s="38"/>
       <c r="AW49" s="38"/>
     </row>
-    <row r="50" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:52">
       <c r="B50">
         <f>SUM(B2:B49)</f>
         <v>100</v>
@@ -22776,7 +22759,7 @@
       <c r="AU50" s="38"/>
       <c r="AW50" s="38"/>
     </row>
-    <row r="54" spans="1:52" ht="96" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:52" ht="96">
       <c r="E54" t="s">
         <v>381</v>
       </c>
@@ -22892,7 +22875,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="55" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:52">
       <c r="D55" t="s">
         <v>384</v>
       </c>
@@ -22983,7 +22966,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="56" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:52">
       <c r="D56" t="s">
         <v>385</v>
       </c>
@@ -23074,7 +23057,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="57" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:52">
       <c r="D57" t="s">
         <v>386</v>
       </c>
@@ -23165,7 +23148,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="58" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:52">
       <c r="D58" t="s">
         <v>387</v>
       </c>
@@ -23256,7 +23239,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="59" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:52">
       <c r="D59" t="s">
         <v>388</v>
       </c>
@@ -23344,7 +23327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:52">
       <c r="D60" t="s">
         <v>389</v>
       </c>
@@ -23432,7 +23415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:52">
       <c r="D61" t="s">
         <v>390</v>
       </c>
@@ -23520,7 +23503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:52">
       <c r="D62" t="s">
         <v>391</v>
       </c>
@@ -23608,7 +23591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:52">
       <c r="P63">
         <f>SUM(P55:P62)</f>
         <v>3</v>
@@ -23698,11 +23681,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK103"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:Z18"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:AE3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="43"/>
     <col min="2" max="2" width="3.5" bestFit="1" customWidth="1"/>
@@ -23714,12 +23697,12 @@
     <col min="37" max="37" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="43" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:37" s="43" customFormat="1">
       <c r="P1" s="43" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:37">
       <c r="C2" s="43"/>
       <c r="D2">
         <v>1</v>
@@ -23803,7 +23786,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="180" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:37" ht="180" customHeight="1">
       <c r="C3" s="44"/>
       <c r="D3" s="45" t="s">
         <v>419</v>
@@ -23896,7 +23879,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:37">
       <c r="B4">
         <v>1</v>
       </c>
@@ -23947,7 +23930,7 @@
       <c r="AJ4" s="35"/>
       <c r="AK4" s="35"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:37">
       <c r="B5">
         <v>2</v>
       </c>
@@ -23996,7 +23979,7 @@
       <c r="AJ5" s="35"/>
       <c r="AK5" s="35"/>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:37">
       <c r="B6" s="43">
         <v>3</v>
       </c>
@@ -24055,7 +24038,7 @@
       <c r="AJ6" s="35"/>
       <c r="AK6" s="35"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:37">
       <c r="B7" s="43">
         <v>4</v>
       </c>
@@ -24126,7 +24109,7 @@
       <c r="AJ7" s="35"/>
       <c r="AK7" s="35"/>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:37">
       <c r="B8" s="43">
         <v>5</v>
       </c>
@@ -24185,7 +24168,7 @@
       <c r="AJ8" s="35"/>
       <c r="AK8" s="35"/>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:37">
       <c r="B9" s="43">
         <v>6</v>
       </c>
@@ -24236,7 +24219,7 @@
       <c r="AJ9" s="35"/>
       <c r="AK9" s="35"/>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:37">
       <c r="B10" s="43">
         <v>7</v>
       </c>
@@ -24293,7 +24276,7 @@
       <c r="AJ10" s="35"/>
       <c r="AK10" s="35"/>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:37">
       <c r="A11" s="43" t="s">
         <v>444</v>
       </c>
@@ -24345,7 +24328,7 @@
       <c r="AJ11" s="35"/>
       <c r="AK11" s="35"/>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:37">
       <c r="B12" s="43">
         <v>9</v>
       </c>
@@ -24406,7 +24389,7 @@
       <c r="AJ12" s="35"/>
       <c r="AK12" s="35"/>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:37">
       <c r="B13" s="43">
         <v>10</v>
       </c>
@@ -24459,7 +24442,7 @@
       <c r="AJ13" s="35"/>
       <c r="AK13" s="35"/>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:37">
       <c r="B14" s="43">
         <v>11</v>
       </c>
@@ -24508,7 +24491,7 @@
       <c r="AJ14" s="35"/>
       <c r="AK14" s="35"/>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:37">
       <c r="B15" s="43">
         <v>12</v>
       </c>
@@ -24557,7 +24540,7 @@
       <c r="AJ15" s="35"/>
       <c r="AK15" s="35"/>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:37">
       <c r="B16" s="43">
         <v>13</v>
       </c>
@@ -24624,7 +24607,7 @@
       <c r="AJ16" s="35"/>
       <c r="AK16" s="35"/>
     </row>
-    <row r="17" spans="2:37" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:37">
       <c r="B17" s="43">
         <v>14</v>
       </c>
@@ -24673,7 +24656,7 @@
       <c r="AJ17" s="35"/>
       <c r="AK17" s="35"/>
     </row>
-    <row r="18" spans="2:37" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:37">
       <c r="B18" s="43">
         <v>15</v>
       </c>
@@ -24722,7 +24705,7 @@
       <c r="AJ18" s="35"/>
       <c r="AK18" s="35"/>
     </row>
-    <row r="19" spans="2:37" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:37">
       <c r="B19" s="43">
         <v>16</v>
       </c>
@@ -24773,7 +24756,7 @@
       <c r="AJ19" s="35"/>
       <c r="AK19" s="35"/>
     </row>
-    <row r="20" spans="2:37" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:37">
       <c r="B20" s="43">
         <v>17</v>
       </c>
@@ -24826,7 +24809,7 @@
       <c r="AJ20" s="35"/>
       <c r="AK20" s="35"/>
     </row>
-    <row r="21" spans="2:37" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:37">
       <c r="AF21" s="43">
         <v>8</v>
       </c>
@@ -24840,7 +24823,7 @@
       <c r="AJ21" s="35"/>
       <c r="AK21" s="35"/>
     </row>
-    <row r="22" spans="2:37" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:37">
       <c r="AF22" s="43">
         <v>8</v>
       </c>
@@ -24854,7 +24837,7 @@
       <c r="AJ22" s="35"/>
       <c r="AK22" s="35"/>
     </row>
-    <row r="23" spans="2:37" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:37">
       <c r="B23" s="43"/>
       <c r="C23" s="43"/>
       <c r="D23" s="43"/>
@@ -24897,7 +24880,7 @@
       <c r="AJ23" s="35"/>
       <c r="AK23" s="35"/>
     </row>
-    <row r="24" spans="2:37" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:37">
       <c r="B24" s="43"/>
       <c r="C24" s="35"/>
       <c r="D24" s="35"/>
@@ -24940,7 +24923,7 @@
       <c r="AJ24" s="35"/>
       <c r="AK24" s="35"/>
     </row>
-    <row r="25" spans="2:37" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:37">
       <c r="B25" s="43"/>
       <c r="C25" s="35"/>
       <c r="D25" s="41"/>
@@ -24983,7 +24966,7 @@
       <c r="AJ25" s="35"/>
       <c r="AK25" s="35"/>
     </row>
-    <row r="26" spans="2:37" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:37">
       <c r="B26" s="43"/>
       <c r="C26" s="51"/>
       <c r="D26" s="35"/>
@@ -25026,7 +25009,7 @@
       <c r="AJ26" s="35"/>
       <c r="AK26" s="35"/>
     </row>
-    <row r="27" spans="2:37" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:37">
       <c r="B27" s="43"/>
       <c r="C27" s="51"/>
       <c r="D27" s="35"/>
@@ -25069,7 +25052,7 @@
       <c r="AJ27" s="35"/>
       <c r="AK27" s="35"/>
     </row>
-    <row r="28" spans="2:37" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:37">
       <c r="B28" s="43"/>
       <c r="C28" s="51"/>
       <c r="D28" s="35"/>
@@ -25112,7 +25095,7 @@
       <c r="AJ28" s="35"/>
       <c r="AK28" s="35"/>
     </row>
-    <row r="29" spans="2:37" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:37">
       <c r="B29" s="43"/>
       <c r="C29" s="51"/>
       <c r="D29" s="35"/>
@@ -25155,7 +25138,7 @@
       <c r="AJ29" s="35"/>
       <c r="AK29" s="35"/>
     </row>
-    <row r="30" spans="2:37" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:37">
       <c r="B30" s="43"/>
       <c r="C30" s="51"/>
       <c r="D30" s="35"/>
@@ -25198,7 +25181,7 @@
       <c r="AJ30" s="35"/>
       <c r="AK30" s="35"/>
     </row>
-    <row r="31" spans="2:37" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:37">
       <c r="B31" s="43"/>
       <c r="C31" s="51"/>
       <c r="D31" s="35"/>
@@ -25241,7 +25224,7 @@
       <c r="AJ31" s="35"/>
       <c r="AK31" s="35"/>
     </row>
-    <row r="32" spans="2:37" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:37">
       <c r="B32" s="43"/>
       <c r="C32" s="51"/>
       <c r="D32" s="35"/>
@@ -25284,7 +25267,7 @@
       <c r="AJ32" s="35"/>
       <c r="AK32" s="35"/>
     </row>
-    <row r="33" spans="2:37" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:37">
       <c r="B33" s="43"/>
       <c r="C33" s="51"/>
       <c r="D33" s="35"/>
@@ -25327,7 +25310,7 @@
       <c r="AJ33" s="35"/>
       <c r="AK33" s="35"/>
     </row>
-    <row r="34" spans="2:37" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:37">
       <c r="B34" s="43"/>
       <c r="C34" s="51"/>
       <c r="D34" s="35"/>
@@ -25370,7 +25353,7 @@
       <c r="AJ34" s="35"/>
       <c r="AK34" s="35"/>
     </row>
-    <row r="35" spans="2:37" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:37">
       <c r="B35" s="43"/>
       <c r="C35" s="51"/>
       <c r="D35" s="35"/>
@@ -25413,7 +25396,7 @@
       <c r="AJ35" s="35"/>
       <c r="AK35" s="35"/>
     </row>
-    <row r="36" spans="2:37" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:37">
       <c r="B36" s="43"/>
       <c r="C36" s="51"/>
       <c r="D36" s="35"/>
@@ -25456,7 +25439,7 @@
       <c r="AJ36" s="35"/>
       <c r="AK36" s="35"/>
     </row>
-    <row r="37" spans="2:37" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:37">
       <c r="B37" s="43"/>
       <c r="C37" s="51"/>
       <c r="D37" s="35"/>
@@ -25499,7 +25482,7 @@
       <c r="AJ37" s="35"/>
       <c r="AK37" s="35"/>
     </row>
-    <row r="38" spans="2:37" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:37">
       <c r="B38" s="43"/>
       <c r="C38" s="51"/>
       <c r="D38" s="35"/>
@@ -25542,7 +25525,7 @@
       <c r="AJ38" s="35"/>
       <c r="AK38" s="35"/>
     </row>
-    <row r="39" spans="2:37" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:37">
       <c r="B39" s="43"/>
       <c r="C39" s="51"/>
       <c r="D39" s="35"/>
@@ -25585,7 +25568,7 @@
       <c r="AJ39" s="35"/>
       <c r="AK39" s="35"/>
     </row>
-    <row r="40" spans="2:37" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:37">
       <c r="B40" s="43"/>
       <c r="C40" s="51"/>
       <c r="D40" s="35"/>
@@ -25628,7 +25611,7 @@
       <c r="AJ40" s="35"/>
       <c r="AK40" s="35"/>
     </row>
-    <row r="41" spans="2:37" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:37">
       <c r="B41" s="43"/>
       <c r="C41" s="51"/>
       <c r="D41" s="35"/>
@@ -25671,7 +25654,7 @@
       <c r="AJ41" s="35"/>
       <c r="AK41" s="35"/>
     </row>
-    <row r="42" spans="2:37" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:37">
       <c r="B42" s="43"/>
       <c r="C42" s="51"/>
       <c r="D42" s="35"/>
@@ -25714,7 +25697,7 @@
       <c r="AJ42" s="35"/>
       <c r="AK42" s="35"/>
     </row>
-    <row r="43" spans="2:37" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:37">
       <c r="AF43">
         <v>20</v>
       </c>
@@ -25728,7 +25711,7 @@
       <c r="AJ43" s="35"/>
       <c r="AK43" s="35"/>
     </row>
-    <row r="44" spans="2:37" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:37">
       <c r="AF44">
         <v>20</v>
       </c>
@@ -25742,7 +25725,7 @@
       <c r="AJ44" s="35"/>
       <c r="AK44" s="35"/>
     </row>
-    <row r="45" spans="2:37" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:37">
       <c r="AF45">
         <v>21</v>
       </c>
@@ -25756,7 +25739,7 @@
       <c r="AJ45" s="35"/>
       <c r="AK45" s="35"/>
     </row>
-    <row r="46" spans="2:37" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:37">
       <c r="AF46" s="43">
         <v>21</v>
       </c>
@@ -25770,7 +25753,7 @@
       <c r="AJ46" s="35"/>
       <c r="AK46" s="35"/>
     </row>
-    <row r="47" spans="2:37" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:37">
       <c r="AF47" s="43">
         <v>21</v>
       </c>
@@ -25784,7 +25767,7 @@
       <c r="AJ47" s="35"/>
       <c r="AK47" s="35"/>
     </row>
-    <row r="48" spans="2:37" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:37">
       <c r="AF48" s="43">
         <v>21</v>
       </c>
@@ -25798,7 +25781,7 @@
       <c r="AJ48" s="35"/>
       <c r="AK48" s="35"/>
     </row>
-    <row r="49" spans="32:37" x14ac:dyDescent="0.15">
+    <row r="49" spans="32:37">
       <c r="AF49" s="43">
         <v>21</v>
       </c>
@@ -25812,7 +25795,7 @@
       <c r="AJ49" s="35"/>
       <c r="AK49" s="35"/>
     </row>
-    <row r="50" spans="32:37" x14ac:dyDescent="0.15">
+    <row r="50" spans="32:37">
       <c r="AF50" s="43">
         <v>21</v>
       </c>
@@ -25826,7 +25809,7 @@
       <c r="AJ50" s="35"/>
       <c r="AK50" s="35"/>
     </row>
-    <row r="51" spans="32:37" x14ac:dyDescent="0.15">
+    <row r="51" spans="32:37">
       <c r="AF51" s="43">
         <v>21</v>
       </c>
@@ -25840,7 +25823,7 @@
       <c r="AJ51" s="35"/>
       <c r="AK51" s="35"/>
     </row>
-    <row r="52" spans="32:37" x14ac:dyDescent="0.15">
+    <row r="52" spans="32:37">
       <c r="AF52" s="43">
         <v>21</v>
       </c>
@@ -25854,7 +25837,7 @@
       <c r="AJ52" s="35"/>
       <c r="AK52" s="35"/>
     </row>
-    <row r="53" spans="32:37" x14ac:dyDescent="0.15">
+    <row r="53" spans="32:37">
       <c r="AF53" s="43">
         <v>21</v>
       </c>
@@ -25868,7 +25851,7 @@
       <c r="AJ53" s="35"/>
       <c r="AK53" s="35"/>
     </row>
-    <row r="54" spans="32:37" x14ac:dyDescent="0.15">
+    <row r="54" spans="32:37">
       <c r="AF54" s="43">
         <v>22</v>
       </c>
@@ -25882,7 +25865,7 @@
       <c r="AJ54" s="35"/>
       <c r="AK54" s="35"/>
     </row>
-    <row r="55" spans="32:37" x14ac:dyDescent="0.15">
+    <row r="55" spans="32:37">
       <c r="AF55" s="43">
         <v>23</v>
       </c>
@@ -25896,7 +25879,7 @@
       <c r="AJ55" s="35"/>
       <c r="AK55" s="35"/>
     </row>
-    <row r="56" spans="32:37" x14ac:dyDescent="0.15">
+    <row r="56" spans="32:37">
       <c r="AF56" s="43">
         <v>23</v>
       </c>
@@ -25910,7 +25893,7 @@
       <c r="AJ56" s="35"/>
       <c r="AK56" s="35"/>
     </row>
-    <row r="57" spans="32:37" x14ac:dyDescent="0.15">
+    <row r="57" spans="32:37">
       <c r="AF57" s="43">
         <v>24</v>
       </c>
@@ -25924,7 +25907,7 @@
       <c r="AJ57" s="35"/>
       <c r="AK57" s="35"/>
     </row>
-    <row r="58" spans="32:37" x14ac:dyDescent="0.15">
+    <row r="58" spans="32:37">
       <c r="AF58" s="43">
         <v>25</v>
       </c>
@@ -25938,7 +25921,7 @@
       <c r="AJ58" s="35"/>
       <c r="AK58" s="35"/>
     </row>
-    <row r="59" spans="32:37" x14ac:dyDescent="0.15">
+    <row r="59" spans="32:37">
       <c r="AF59" s="43">
         <v>25</v>
       </c>
@@ -25952,7 +25935,7 @@
       <c r="AJ59" s="35"/>
       <c r="AK59" s="35"/>
     </row>
-    <row r="60" spans="32:37" x14ac:dyDescent="0.15">
+    <row r="60" spans="32:37">
       <c r="AF60" s="43">
         <v>26</v>
       </c>
@@ -25966,7 +25949,7 @@
       <c r="AJ60" s="35"/>
       <c r="AK60" s="35"/>
     </row>
-    <row r="61" spans="32:37" x14ac:dyDescent="0.15">
+    <row r="61" spans="32:37">
       <c r="AF61" s="43">
         <v>26</v>
       </c>
@@ -25980,7 +25963,7 @@
       <c r="AJ61" s="35"/>
       <c r="AK61" s="35"/>
     </row>
-    <row r="62" spans="32:37" x14ac:dyDescent="0.15">
+    <row r="62" spans="32:37">
       <c r="AF62" s="43">
         <v>26</v>
       </c>
@@ -25994,7 +25977,7 @@
       <c r="AJ62" s="35"/>
       <c r="AK62" s="35"/>
     </row>
-    <row r="63" spans="32:37" x14ac:dyDescent="0.15">
+    <row r="63" spans="32:37">
       <c r="AF63" s="43">
         <v>26</v>
       </c>
@@ -26008,7 +25991,7 @@
       <c r="AJ63" s="35"/>
       <c r="AK63" s="35"/>
     </row>
-    <row r="64" spans="32:37" x14ac:dyDescent="0.15">
+    <row r="64" spans="32:37">
       <c r="AF64" s="43">
         <v>27</v>
       </c>
@@ -26022,7 +26005,7 @@
       <c r="AJ64" s="35"/>
       <c r="AK64" s="35"/>
     </row>
-    <row r="65" spans="32:37" x14ac:dyDescent="0.15">
+    <row r="65" spans="32:37">
       <c r="AF65" s="43">
         <v>27</v>
       </c>
@@ -26036,7 +26019,7 @@
       <c r="AJ65" s="35"/>
       <c r="AK65" s="35"/>
     </row>
-    <row r="66" spans="32:37" x14ac:dyDescent="0.15">
+    <row r="66" spans="32:37">
       <c r="AF66" s="43">
         <v>27</v>
       </c>
@@ -26050,7 +26033,7 @@
       <c r="AJ66" s="35"/>
       <c r="AK66" s="35"/>
     </row>
-    <row r="67" spans="32:37" x14ac:dyDescent="0.15">
+    <row r="67" spans="32:37">
       <c r="AF67" s="43">
         <v>27</v>
       </c>
@@ -26064,252 +26047,252 @@
       <c r="AJ67" s="35"/>
       <c r="AK67" s="35"/>
     </row>
-    <row r="68" spans="32:37" x14ac:dyDescent="0.15">
+    <row r="68" spans="32:37">
       <c r="AG68" s="35"/>
       <c r="AH68" s="35"/>
       <c r="AI68" s="35"/>
       <c r="AJ68" s="35"/>
       <c r="AK68" s="35"/>
     </row>
-    <row r="69" spans="32:37" x14ac:dyDescent="0.15">
+    <row r="69" spans="32:37">
       <c r="AG69" s="35"/>
       <c r="AH69" s="35"/>
       <c r="AI69" s="35"/>
       <c r="AJ69" s="35"/>
       <c r="AK69" s="35"/>
     </row>
-    <row r="70" spans="32:37" x14ac:dyDescent="0.15">
+    <row r="70" spans="32:37">
       <c r="AG70" s="35"/>
       <c r="AH70" s="35"/>
       <c r="AI70" s="35"/>
       <c r="AJ70" s="35"/>
       <c r="AK70" s="35"/>
     </row>
-    <row r="71" spans="32:37" x14ac:dyDescent="0.15">
+    <row r="71" spans="32:37">
       <c r="AG71" s="35"/>
       <c r="AH71" s="35"/>
       <c r="AI71" s="35"/>
       <c r="AJ71" s="35"/>
       <c r="AK71" s="35"/>
     </row>
-    <row r="72" spans="32:37" x14ac:dyDescent="0.15">
+    <row r="72" spans="32:37">
       <c r="AG72" s="35"/>
       <c r="AH72" s="35"/>
       <c r="AI72" s="35"/>
       <c r="AJ72" s="35"/>
       <c r="AK72" s="35"/>
     </row>
-    <row r="73" spans="32:37" x14ac:dyDescent="0.15">
+    <row r="73" spans="32:37">
       <c r="AG73" s="35"/>
       <c r="AH73" s="35"/>
       <c r="AI73" s="35"/>
       <c r="AJ73" s="35"/>
       <c r="AK73" s="35"/>
     </row>
-    <row r="74" spans="32:37" x14ac:dyDescent="0.15">
+    <row r="74" spans="32:37">
       <c r="AG74" s="35"/>
       <c r="AH74" s="35"/>
       <c r="AI74" s="35"/>
       <c r="AJ74" s="35"/>
       <c r="AK74" s="35"/>
     </row>
-    <row r="75" spans="32:37" x14ac:dyDescent="0.15">
+    <row r="75" spans="32:37">
       <c r="AG75" s="35"/>
       <c r="AH75" s="35"/>
       <c r="AI75" s="35"/>
       <c r="AJ75" s="35"/>
       <c r="AK75" s="35"/>
     </row>
-    <row r="76" spans="32:37" x14ac:dyDescent="0.15">
+    <row r="76" spans="32:37">
       <c r="AG76" s="35"/>
       <c r="AH76" s="35"/>
       <c r="AI76" s="35"/>
       <c r="AJ76" s="35"/>
       <c r="AK76" s="35"/>
     </row>
-    <row r="77" spans="32:37" x14ac:dyDescent="0.15">
+    <row r="77" spans="32:37">
       <c r="AG77" s="35"/>
       <c r="AH77" s="35"/>
       <c r="AI77" s="35"/>
       <c r="AJ77" s="35"/>
       <c r="AK77" s="35"/>
     </row>
-    <row r="78" spans="32:37" x14ac:dyDescent="0.15">
+    <row r="78" spans="32:37">
       <c r="AG78" s="35"/>
       <c r="AH78" s="35"/>
       <c r="AI78" s="35"/>
       <c r="AJ78" s="35"/>
       <c r="AK78" s="35"/>
     </row>
-    <row r="79" spans="32:37" x14ac:dyDescent="0.15">
+    <row r="79" spans="32:37">
       <c r="AG79" s="35"/>
       <c r="AH79" s="35"/>
       <c r="AI79" s="35"/>
       <c r="AJ79" s="35"/>
       <c r="AK79" s="35"/>
     </row>
-    <row r="80" spans="32:37" x14ac:dyDescent="0.15">
+    <row r="80" spans="32:37">
       <c r="AG80" s="35"/>
       <c r="AH80" s="35"/>
       <c r="AI80" s="35"/>
       <c r="AJ80" s="35"/>
       <c r="AK80" s="35"/>
     </row>
-    <row r="81" spans="33:37" x14ac:dyDescent="0.15">
+    <row r="81" spans="33:37">
       <c r="AG81" s="35"/>
       <c r="AH81" s="35"/>
       <c r="AI81" s="35"/>
       <c r="AJ81" s="35"/>
       <c r="AK81" s="35"/>
     </row>
-    <row r="82" spans="33:37" x14ac:dyDescent="0.15">
+    <row r="82" spans="33:37">
       <c r="AG82" s="35"/>
       <c r="AH82" s="35"/>
       <c r="AI82" s="35"/>
       <c r="AJ82" s="35"/>
       <c r="AK82" s="35"/>
     </row>
-    <row r="83" spans="33:37" x14ac:dyDescent="0.15">
+    <row r="83" spans="33:37">
       <c r="AG83" s="35"/>
       <c r="AH83" s="35"/>
       <c r="AI83" s="35"/>
       <c r="AJ83" s="35"/>
       <c r="AK83" s="35"/>
     </row>
-    <row r="84" spans="33:37" x14ac:dyDescent="0.15">
+    <row r="84" spans="33:37">
       <c r="AG84" s="35"/>
       <c r="AH84" s="35"/>
       <c r="AI84" s="35"/>
       <c r="AJ84" s="35"/>
       <c r="AK84" s="35"/>
     </row>
-    <row r="85" spans="33:37" x14ac:dyDescent="0.15">
+    <row r="85" spans="33:37">
       <c r="AG85" s="35"/>
       <c r="AH85" s="35"/>
       <c r="AI85" s="35"/>
       <c r="AJ85" s="35"/>
       <c r="AK85" s="35"/>
     </row>
-    <row r="86" spans="33:37" x14ac:dyDescent="0.15">
+    <row r="86" spans="33:37">
       <c r="AG86" s="35"/>
       <c r="AH86" s="35"/>
       <c r="AI86" s="35"/>
       <c r="AJ86" s="35"/>
       <c r="AK86" s="35"/>
     </row>
-    <row r="87" spans="33:37" x14ac:dyDescent="0.15">
+    <row r="87" spans="33:37">
       <c r="AG87" s="35"/>
       <c r="AH87" s="35"/>
       <c r="AI87" s="35"/>
       <c r="AJ87" s="35"/>
       <c r="AK87" s="35"/>
     </row>
-    <row r="88" spans="33:37" x14ac:dyDescent="0.15">
+    <row r="88" spans="33:37">
       <c r="AG88" s="35"/>
       <c r="AH88" s="35"/>
       <c r="AI88" s="35"/>
       <c r="AJ88" s="35"/>
       <c r="AK88" s="35"/>
     </row>
-    <row r="89" spans="33:37" x14ac:dyDescent="0.15">
+    <row r="89" spans="33:37">
       <c r="AG89" s="35"/>
       <c r="AH89" s="35"/>
       <c r="AI89" s="35"/>
       <c r="AJ89" s="35"/>
       <c r="AK89" s="35"/>
     </row>
-    <row r="90" spans="33:37" x14ac:dyDescent="0.15">
+    <row r="90" spans="33:37">
       <c r="AG90" s="35"/>
       <c r="AH90" s="35"/>
       <c r="AI90" s="35"/>
       <c r="AJ90" s="35"/>
       <c r="AK90" s="35"/>
     </row>
-    <row r="91" spans="33:37" x14ac:dyDescent="0.15">
+    <row r="91" spans="33:37">
       <c r="AG91" s="35"/>
       <c r="AH91" s="35"/>
       <c r="AI91" s="35"/>
       <c r="AJ91" s="35"/>
       <c r="AK91" s="35"/>
     </row>
-    <row r="92" spans="33:37" x14ac:dyDescent="0.15">
+    <row r="92" spans="33:37">
       <c r="AG92" s="35"/>
       <c r="AH92" s="35"/>
       <c r="AI92" s="35"/>
       <c r="AJ92" s="35"/>
       <c r="AK92" s="35"/>
     </row>
-    <row r="93" spans="33:37" x14ac:dyDescent="0.15">
+    <row r="93" spans="33:37">
       <c r="AG93" s="35"/>
       <c r="AH93" s="35"/>
       <c r="AI93" s="35"/>
       <c r="AJ93" s="35"/>
       <c r="AK93" s="35"/>
     </row>
-    <row r="94" spans="33:37" x14ac:dyDescent="0.15">
+    <row r="94" spans="33:37">
       <c r="AG94" s="35"/>
       <c r="AH94" s="35"/>
       <c r="AI94" s="35"/>
       <c r="AJ94" s="35"/>
       <c r="AK94" s="35"/>
     </row>
-    <row r="95" spans="33:37" x14ac:dyDescent="0.15">
+    <row r="95" spans="33:37">
       <c r="AG95" s="35"/>
       <c r="AH95" s="35"/>
       <c r="AI95" s="35"/>
       <c r="AJ95" s="35"/>
       <c r="AK95" s="35"/>
     </row>
-    <row r="96" spans="33:37" x14ac:dyDescent="0.15">
+    <row r="96" spans="33:37">
       <c r="AG96" s="35"/>
       <c r="AH96" s="35"/>
       <c r="AI96" s="35"/>
       <c r="AJ96" s="35"/>
       <c r="AK96" s="35"/>
     </row>
-    <row r="97" spans="33:37" x14ac:dyDescent="0.15">
+    <row r="97" spans="33:37">
       <c r="AG97" s="35"/>
       <c r="AH97" s="35"/>
       <c r="AI97" s="35"/>
       <c r="AJ97" s="35"/>
       <c r="AK97" s="35"/>
     </row>
-    <row r="98" spans="33:37" x14ac:dyDescent="0.15">
+    <row r="98" spans="33:37">
       <c r="AG98" s="35"/>
       <c r="AH98" s="35"/>
       <c r="AI98" s="35"/>
       <c r="AJ98" s="35"/>
       <c r="AK98" s="35"/>
     </row>
-    <row r="99" spans="33:37" x14ac:dyDescent="0.15">
+    <row r="99" spans="33:37">
       <c r="AG99" s="35"/>
       <c r="AH99" s="35"/>
       <c r="AI99" s="35"/>
       <c r="AJ99" s="35"/>
       <c r="AK99" s="35"/>
     </row>
-    <row r="100" spans="33:37" x14ac:dyDescent="0.15">
+    <row r="100" spans="33:37">
       <c r="AG100" s="35"/>
       <c r="AH100" s="35"/>
       <c r="AI100" s="35"/>
       <c r="AJ100" s="35"/>
       <c r="AK100" s="35"/>
     </row>
-    <row r="101" spans="33:37" x14ac:dyDescent="0.15">
+    <row r="101" spans="33:37">
       <c r="AG101" s="35"/>
       <c r="AH101" s="35"/>
       <c r="AI101" s="35"/>
       <c r="AJ101" s="35"/>
       <c r="AK101" s="35"/>
     </row>
-    <row r="102" spans="33:37" x14ac:dyDescent="0.15">
+    <row r="102" spans="33:37">
       <c r="AG102" s="35"/>
       <c r="AH102" s="35"/>
       <c r="AI102" s="35"/>
       <c r="AJ102" s="35"/>
       <c r="AK102" s="35"/>
     </row>
-    <row r="103" spans="33:37" x14ac:dyDescent="0.15">
+    <row r="103" spans="33:37">
       <c r="AG103" s="35"/>
       <c r="AH103" s="35"/>
       <c r="AI103" s="35"/>
@@ -26332,7 +26315,7 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
